--- a/data/fake/fake_names_descs_prices.xlsx
+++ b/data/fake/fake_names_descs_prices.xlsx
@@ -7488,7 +7488,7 @@
         <v>1002</v>
       </c>
       <c r="C2">
-        <v>414</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7499,7 +7499,7 @@
         <v>1003</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7510,7 +7510,7 @@
         <v>1004</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7521,7 +7521,7 @@
         <v>1005</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7532,7 +7532,7 @@
         <v>1006</v>
       </c>
       <c r="C6">
-        <v>573</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7543,7 +7543,7 @@
         <v>1007</v>
       </c>
       <c r="C7">
-        <v>524</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7554,7 +7554,7 @@
         <v>1008</v>
       </c>
       <c r="C8">
-        <v>650</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7565,7 +7565,7 @@
         <v>1009</v>
       </c>
       <c r="C9">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7576,7 +7576,7 @@
         <v>1010</v>
       </c>
       <c r="C10">
-        <v>952</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7587,7 +7587,7 @@
         <v>1011</v>
       </c>
       <c r="C11">
-        <v>262</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7598,7 +7598,7 @@
         <v>1012</v>
       </c>
       <c r="C12">
-        <v>202</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7609,7 +7609,7 @@
         <v>1013</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7620,7 +7620,7 @@
         <v>1014</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7631,7 +7631,7 @@
         <v>1015</v>
       </c>
       <c r="C15">
-        <v>2008</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7642,7 +7642,7 @@
         <v>1016</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7653,7 +7653,7 @@
         <v>1017</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7664,7 +7664,7 @@
         <v>1018</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7675,7 +7675,7 @@
         <v>1019</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7686,7 +7686,7 @@
         <v>1020</v>
       </c>
       <c r="C20">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7697,7 +7697,7 @@
         <v>1021</v>
       </c>
       <c r="C21">
-        <v>287</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7708,7 +7708,7 @@
         <v>1022</v>
       </c>
       <c r="C22">
-        <v>567</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7719,7 +7719,7 @@
         <v>1023</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7730,7 +7730,7 @@
         <v>1024</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7741,7 +7741,7 @@
         <v>1025</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7752,7 +7752,7 @@
         <v>1026</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7763,7 +7763,7 @@
         <v>1027</v>
       </c>
       <c r="C27">
-        <v>196</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7774,7 +7774,7 @@
         <v>1028</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7785,7 +7785,7 @@
         <v>1029</v>
       </c>
       <c r="C29">
-        <v>344</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7796,7 +7796,7 @@
         <v>1030</v>
       </c>
       <c r="C30">
-        <v>389</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7807,7 +7807,7 @@
         <v>1031</v>
       </c>
       <c r="C31">
-        <v>1366</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7818,7 +7818,7 @@
         <v>1032</v>
       </c>
       <c r="C32">
-        <v>1651</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7829,7 +7829,7 @@
         <v>1033</v>
       </c>
       <c r="C33">
-        <v>1075</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7840,7 +7840,7 @@
         <v>1034</v>
       </c>
       <c r="C34">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7851,7 +7851,7 @@
         <v>1035</v>
       </c>
       <c r="C35">
-        <v>194</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7862,7 +7862,7 @@
         <v>1036</v>
       </c>
       <c r="C36">
-        <v>1308</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7873,7 +7873,7 @@
         <v>1037</v>
       </c>
       <c r="C37">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7884,7 +7884,7 @@
         <v>1038</v>
       </c>
       <c r="C38">
-        <v>1001</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7895,7 +7895,7 @@
         <v>1039</v>
       </c>
       <c r="C39">
-        <v>1466</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7906,7 +7906,7 @@
         <v>1040</v>
       </c>
       <c r="C40">
-        <v>1924</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7917,7 +7917,7 @@
         <v>1041</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7928,7 +7928,7 @@
         <v>1042</v>
       </c>
       <c r="C42">
-        <v>624</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7939,7 +7939,7 @@
         <v>1043</v>
       </c>
       <c r="C43">
-        <v>352</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7950,7 +7950,7 @@
         <v>1044</v>
       </c>
       <c r="C44">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7961,7 +7961,7 @@
         <v>1045</v>
       </c>
       <c r="C45">
-        <v>2416</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7972,7 +7972,7 @@
         <v>1046</v>
       </c>
       <c r="C46">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7983,7 +7983,7 @@
         <v>1047</v>
       </c>
       <c r="C47">
-        <v>305</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7994,7 +7994,7 @@
         <v>1048</v>
       </c>
       <c r="C48">
-        <v>2437</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8005,7 +8005,7 @@
         <v>1049</v>
       </c>
       <c r="C49">
-        <v>342</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8016,7 +8016,7 @@
         <v>1050</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8027,7 +8027,7 @@
         <v>1051</v>
       </c>
       <c r="C51">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8038,7 +8038,7 @@
         <v>1052</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8049,7 +8049,7 @@
         <v>1053</v>
       </c>
       <c r="C53">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8060,7 +8060,7 @@
         <v>1054</v>
       </c>
       <c r="C54">
-        <v>325</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8071,7 +8071,7 @@
         <v>1055</v>
       </c>
       <c r="C55">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8082,7 +8082,7 @@
         <v>1056</v>
       </c>
       <c r="C56">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8093,7 +8093,7 @@
         <v>1057</v>
       </c>
       <c r="C57">
-        <v>2174</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8104,7 +8104,7 @@
         <v>1058</v>
       </c>
       <c r="C58">
-        <v>163</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8115,7 +8115,7 @@
         <v>1059</v>
       </c>
       <c r="C59">
-        <v>303</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8126,7 +8126,7 @@
         <v>1060</v>
       </c>
       <c r="C60">
-        <v>392</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8137,7 +8137,7 @@
         <v>1061</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8148,7 +8148,7 @@
         <v>1062</v>
       </c>
       <c r="C62">
-        <v>595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8159,7 +8159,7 @@
         <v>1063</v>
       </c>
       <c r="C63">
-        <v>1060</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8170,7 +8170,7 @@
         <v>1064</v>
       </c>
       <c r="C64">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8181,7 +8181,7 @@
         <v>1065</v>
       </c>
       <c r="C65">
-        <v>1557</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8192,7 +8192,7 @@
         <v>1066</v>
       </c>
       <c r="C66">
-        <v>2555</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8203,7 +8203,7 @@
         <v>1067</v>
       </c>
       <c r="C67">
-        <v>289</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8214,7 +8214,7 @@
         <v>1068</v>
       </c>
       <c r="C68">
-        <v>312</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8225,7 +8225,7 @@
         <v>1069</v>
       </c>
       <c r="C69">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8236,7 +8236,7 @@
         <v>1070</v>
       </c>
       <c r="C70">
-        <v>767</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8247,7 +8247,7 @@
         <v>1071</v>
       </c>
       <c r="C71">
-        <v>334</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8258,7 +8258,7 @@
         <v>1072</v>
       </c>
       <c r="C72">
-        <v>124</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8269,7 +8269,7 @@
         <v>1073</v>
       </c>
       <c r="C73">
-        <v>755</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8280,7 +8280,7 @@
         <v>1074</v>
       </c>
       <c r="C74">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8291,7 +8291,7 @@
         <v>1075</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8302,7 +8302,7 @@
         <v>1076</v>
       </c>
       <c r="C76">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8313,7 +8313,7 @@
         <v>1077</v>
       </c>
       <c r="C77">
-        <v>969</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8324,7 +8324,7 @@
         <v>1078</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8335,7 +8335,7 @@
         <v>1079</v>
       </c>
       <c r="C79">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8346,7 +8346,7 @@
         <v>1080</v>
       </c>
       <c r="C80">
-        <v>1837</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8357,7 +8357,7 @@
         <v>1081</v>
       </c>
       <c r="C81">
-        <v>2596</v>
+        <v>620</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8368,7 +8368,7 @@
         <v>1082</v>
       </c>
       <c r="C82">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8379,7 +8379,7 @@
         <v>1083</v>
       </c>
       <c r="C83">
-        <v>3660</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>1084</v>
       </c>
       <c r="C84">
-        <v>805</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8401,7 +8401,7 @@
         <v>1085</v>
       </c>
       <c r="C85">
-        <v>282</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8412,7 +8412,7 @@
         <v>1086</v>
       </c>
       <c r="C86">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8423,7 +8423,7 @@
         <v>1087</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8434,7 +8434,7 @@
         <v>1088</v>
       </c>
       <c r="C88">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8445,7 +8445,7 @@
         <v>1089</v>
       </c>
       <c r="C89">
-        <v>161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8456,7 +8456,7 @@
         <v>1090</v>
       </c>
       <c r="C90">
-        <v>260</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8467,7 +8467,7 @@
         <v>1091</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8478,7 +8478,7 @@
         <v>1092</v>
       </c>
       <c r="C92">
-        <v>725</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>1093</v>
       </c>
       <c r="C93">
-        <v>203</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -8500,7 +8500,7 @@
         <v>1094</v>
       </c>
       <c r="C94">
-        <v>2144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8511,7 +8511,7 @@
         <v>1095</v>
       </c>
       <c r="C95">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8522,7 +8522,7 @@
         <v>1096</v>
       </c>
       <c r="C96">
-        <v>126</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8533,7 +8533,7 @@
         <v>1097</v>
       </c>
       <c r="C97">
-        <v>359</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8544,7 +8544,7 @@
         <v>1098</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8555,7 +8555,7 @@
         <v>1099</v>
       </c>
       <c r="C99">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -8566,7 +8566,7 @@
         <v>1100</v>
       </c>
       <c r="C100">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8577,7 +8577,7 @@
         <v>1101</v>
       </c>
       <c r="C101">
-        <v>1136</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8588,7 +8588,7 @@
         <v>1102</v>
       </c>
       <c r="C102">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8599,7 +8599,7 @@
         <v>1103</v>
       </c>
       <c r="C103">
-        <v>224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8610,7 +8610,7 @@
         <v>1104</v>
       </c>
       <c r="C104">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8621,7 +8621,7 @@
         <v>1105</v>
       </c>
       <c r="C105">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -8632,7 +8632,7 @@
         <v>1106</v>
       </c>
       <c r="C106">
-        <v>218</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8643,7 +8643,7 @@
         <v>1107</v>
       </c>
       <c r="C107">
-        <v>824</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8654,7 +8654,7 @@
         <v>1108</v>
       </c>
       <c r="C108">
-        <v>372</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -8665,7 +8665,7 @@
         <v>1109</v>
       </c>
       <c r="C109">
-        <v>226</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -8676,7 +8676,7 @@
         <v>1110</v>
       </c>
       <c r="C110">
-        <v>763</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -8687,7 +8687,7 @@
         <v>1111</v>
       </c>
       <c r="C111">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8698,7 +8698,7 @@
         <v>1112</v>
       </c>
       <c r="C112">
-        <v>358</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8709,7 +8709,7 @@
         <v>1113</v>
       </c>
       <c r="C113">
-        <v>473</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8720,7 +8720,7 @@
         <v>1114</v>
       </c>
       <c r="C114">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8731,7 +8731,7 @@
         <v>1115</v>
       </c>
       <c r="C115">
-        <v>306</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8742,7 +8742,7 @@
         <v>1116</v>
       </c>
       <c r="C116">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -8753,7 +8753,7 @@
         <v>1117</v>
       </c>
       <c r="C117">
-        <v>2357</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -8764,7 +8764,7 @@
         <v>1118</v>
       </c>
       <c r="C118">
-        <v>822</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8775,7 +8775,7 @@
         <v>1119</v>
       </c>
       <c r="C119">
-        <v>461</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -8786,7 +8786,7 @@
         <v>1120</v>
       </c>
       <c r="C120">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -8797,7 +8797,7 @@
         <v>1121</v>
       </c>
       <c r="C121">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -8808,7 +8808,7 @@
         <v>1122</v>
       </c>
       <c r="C122">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -8819,7 +8819,7 @@
         <v>1123</v>
       </c>
       <c r="C123">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -8830,7 +8830,7 @@
         <v>1124</v>
       </c>
       <c r="C124">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -8841,7 +8841,7 @@
         <v>1125</v>
       </c>
       <c r="C125">
-        <v>594</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -8852,7 +8852,7 @@
         <v>1126</v>
       </c>
       <c r="C126">
-        <v>2514</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -8863,7 +8863,7 @@
         <v>1127</v>
       </c>
       <c r="C127">
-        <v>476</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -8874,7 +8874,7 @@
         <v>1128</v>
       </c>
       <c r="C128">
-        <v>219</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -8885,7 +8885,7 @@
         <v>1129</v>
       </c>
       <c r="C129">
-        <v>648</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -8896,7 +8896,7 @@
         <v>1130</v>
       </c>
       <c r="C130">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -8907,7 +8907,7 @@
         <v>1131</v>
       </c>
       <c r="C131">
-        <v>217</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -8918,7 +8918,7 @@
         <v>1132</v>
       </c>
       <c r="C132">
-        <v>247</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -8929,7 +8929,7 @@
         <v>1133</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -8940,7 +8940,7 @@
         <v>1134</v>
       </c>
       <c r="C134">
-        <v>284</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -8951,7 +8951,7 @@
         <v>1135</v>
       </c>
       <c r="C135">
-        <v>444</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8962,7 +8962,7 @@
         <v>1136</v>
       </c>
       <c r="C136">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -8973,7 +8973,7 @@
         <v>1137</v>
       </c>
       <c r="C137">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>1138</v>
       </c>
       <c r="C138">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -8995,7 +8995,7 @@
         <v>1139</v>
       </c>
       <c r="C139">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9006,7 +9006,7 @@
         <v>1140</v>
       </c>
       <c r="C140">
-        <v>722</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9017,7 +9017,7 @@
         <v>1141</v>
       </c>
       <c r="C141">
-        <v>517</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9028,7 +9028,7 @@
         <v>1142</v>
       </c>
       <c r="C142">
-        <v>414</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -9039,7 +9039,7 @@
         <v>1143</v>
       </c>
       <c r="C143">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9050,7 +9050,7 @@
         <v>1144</v>
       </c>
       <c r="C144">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9061,7 +9061,7 @@
         <v>1145</v>
       </c>
       <c r="C145">
-        <v>423</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9072,7 +9072,7 @@
         <v>1146</v>
       </c>
       <c r="C146">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9083,7 +9083,7 @@
         <v>1147</v>
       </c>
       <c r="C147">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9094,7 +9094,7 @@
         <v>1148</v>
       </c>
       <c r="C148">
-        <v>259</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9105,7 +9105,7 @@
         <v>1149</v>
       </c>
       <c r="C149">
-        <v>635</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9116,7 +9116,7 @@
         <v>1150</v>
       </c>
       <c r="C150">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9127,7 +9127,7 @@
         <v>1151</v>
       </c>
       <c r="C151">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -9138,7 +9138,7 @@
         <v>1152</v>
       </c>
       <c r="C152">
-        <v>3169</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9149,7 +9149,7 @@
         <v>1153</v>
       </c>
       <c r="C153">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9160,7 +9160,7 @@
         <v>1154</v>
       </c>
       <c r="C154">
-        <v>361</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -9171,7 +9171,7 @@
         <v>1155</v>
       </c>
       <c r="C155">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -9182,7 +9182,7 @@
         <v>1156</v>
       </c>
       <c r="C156">
-        <v>402</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -9193,7 +9193,7 @@
         <v>1157</v>
       </c>
       <c r="C157">
-        <v>532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -9204,7 +9204,7 @@
         <v>1158</v>
       </c>
       <c r="C158">
-        <v>461</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -9215,7 +9215,7 @@
         <v>1159</v>
       </c>
       <c r="C159">
-        <v>406</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -9226,7 +9226,7 @@
         <v>1160</v>
       </c>
       <c r="C160">
-        <v>732</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -9237,7 +9237,7 @@
         <v>1161</v>
       </c>
       <c r="C161">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -9248,7 +9248,7 @@
         <v>1162</v>
       </c>
       <c r="C162">
-        <v>752</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>1163</v>
       </c>
       <c r="C163">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -9270,7 +9270,7 @@
         <v>1164</v>
       </c>
       <c r="C164">
-        <v>1546</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -9281,7 +9281,7 @@
         <v>1165</v>
       </c>
       <c r="C165">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -9292,7 +9292,7 @@
         <v>1166</v>
       </c>
       <c r="C166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -9303,7 +9303,7 @@
         <v>1167</v>
       </c>
       <c r="C167">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -9314,7 +9314,7 @@
         <v>1168</v>
       </c>
       <c r="C168">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -9325,7 +9325,7 @@
         <v>1169</v>
       </c>
       <c r="C169">
-        <v>301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -9336,7 +9336,7 @@
         <v>1170</v>
       </c>
       <c r="C170">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9347,7 +9347,7 @@
         <v>1171</v>
       </c>
       <c r="C171">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>1172</v>
       </c>
       <c r="C172">
-        <v>346</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -9369,7 +9369,7 @@
         <v>1173</v>
       </c>
       <c r="C173">
-        <v>596</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -9380,7 +9380,7 @@
         <v>1174</v>
       </c>
       <c r="C174">
-        <v>634</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -9391,7 +9391,7 @@
         <v>1175</v>
       </c>
       <c r="C175">
-        <v>3081</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -9402,7 +9402,7 @@
         <v>1176</v>
       </c>
       <c r="C176">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -9413,7 +9413,7 @@
         <v>1177</v>
       </c>
       <c r="C177">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -9424,7 +9424,7 @@
         <v>1178</v>
       </c>
       <c r="C178">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -9435,7 +9435,7 @@
         <v>1179</v>
       </c>
       <c r="C179">
-        <v>3909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -9446,7 +9446,7 @@
         <v>1180</v>
       </c>
       <c r="C180">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>1181</v>
       </c>
       <c r="C181">
-        <v>940</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -9468,7 +9468,7 @@
         <v>1182</v>
       </c>
       <c r="C182">
-        <v>243</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -9479,7 +9479,7 @@
         <v>1183</v>
       </c>
       <c r="C183">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9490,7 +9490,7 @@
         <v>1184</v>
       </c>
       <c r="C184">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -9501,7 +9501,7 @@
         <v>1185</v>
       </c>
       <c r="C185">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -9512,7 +9512,7 @@
         <v>1186</v>
       </c>
       <c r="C186">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9523,7 +9523,7 @@
         <v>1187</v>
       </c>
       <c r="C187">
-        <v>190</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -9534,7 +9534,7 @@
         <v>1188</v>
       </c>
       <c r="C188">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -9545,7 +9545,7 @@
         <v>1189</v>
       </c>
       <c r="C189">
-        <v>1983</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -9556,7 +9556,7 @@
         <v>1190</v>
       </c>
       <c r="C190">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -9567,7 +9567,7 @@
         <v>1191</v>
       </c>
       <c r="C191">
-        <v>667</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -9578,7 +9578,7 @@
         <v>1192</v>
       </c>
       <c r="C192">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -9589,7 +9589,7 @@
         <v>1193</v>
       </c>
       <c r="C193">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -9600,7 +9600,7 @@
         <v>1194</v>
       </c>
       <c r="C194">
-        <v>776</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -9611,7 +9611,7 @@
         <v>1195</v>
       </c>
       <c r="C195">
-        <v>211</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -9622,7 +9622,7 @@
         <v>1196</v>
       </c>
       <c r="C196">
-        <v>1186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -9633,7 +9633,7 @@
         <v>1197</v>
       </c>
       <c r="C197">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -9644,7 +9644,7 @@
         <v>1198</v>
       </c>
       <c r="C198">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -9655,7 +9655,7 @@
         <v>1199</v>
       </c>
       <c r="C199">
-        <v>348</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -9666,7 +9666,7 @@
         <v>1200</v>
       </c>
       <c r="C200">
-        <v>289</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -9677,7 +9677,7 @@
         <v>1201</v>
       </c>
       <c r="C201">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -9688,7 +9688,7 @@
         <v>1202</v>
       </c>
       <c r="C202">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -9699,7 +9699,7 @@
         <v>1203</v>
       </c>
       <c r="C203">
-        <v>414</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -9710,7 +9710,7 @@
         <v>1204</v>
       </c>
       <c r="C204">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -9721,7 +9721,7 @@
         <v>1205</v>
       </c>
       <c r="C205">
-        <v>153</v>
+        <v>54</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -9732,7 +9732,7 @@
         <v>1206</v>
       </c>
       <c r="C206">
-        <v>1486</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -9743,7 +9743,7 @@
         <v>1207</v>
       </c>
       <c r="C207">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -9754,7 +9754,7 @@
         <v>1208</v>
       </c>
       <c r="C208">
-        <v>386</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -9765,7 +9765,7 @@
         <v>1209</v>
       </c>
       <c r="C209">
-        <v>334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -9776,7 +9776,7 @@
         <v>1210</v>
       </c>
       <c r="C210">
-        <v>580</v>
+        <v>85</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -9787,7 +9787,7 @@
         <v>1211</v>
       </c>
       <c r="C211">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -9798,7 +9798,7 @@
         <v>1212</v>
       </c>
       <c r="C212">
-        <v>347</v>
+        <v>89</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>1213</v>
       </c>
       <c r="C213">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -9820,7 +9820,7 @@
         <v>1214</v>
       </c>
       <c r="C214">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -9831,7 +9831,7 @@
         <v>1215</v>
       </c>
       <c r="C215">
-        <v>711</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -9842,7 +9842,7 @@
         <v>1216</v>
       </c>
       <c r="C216">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -9853,7 +9853,7 @@
         <v>1217</v>
       </c>
       <c r="C217">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -9864,7 +9864,7 @@
         <v>1218</v>
       </c>
       <c r="C218">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -9875,7 +9875,7 @@
         <v>1219</v>
       </c>
       <c r="C219">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -9886,7 +9886,7 @@
         <v>1220</v>
       </c>
       <c r="C220">
-        <v>544</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -9897,7 +9897,7 @@
         <v>1221</v>
       </c>
       <c r="C221">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -9908,7 +9908,7 @@
         <v>1222</v>
       </c>
       <c r="C222">
-        <v>631</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -9919,7 +9919,7 @@
         <v>1223</v>
       </c>
       <c r="C223">
-        <v>276</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -9930,7 +9930,7 @@
         <v>1224</v>
       </c>
       <c r="C224">
-        <v>614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -9941,7 +9941,7 @@
         <v>1225</v>
       </c>
       <c r="C225">
-        <v>192</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -9952,7 +9952,7 @@
         <v>1226</v>
       </c>
       <c r="C226">
-        <v>1464</v>
+        <v>124</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -9963,7 +9963,7 @@
         <v>1227</v>
       </c>
       <c r="C227">
-        <v>295</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -9974,7 +9974,7 @@
         <v>1228</v>
       </c>
       <c r="C228">
-        <v>386</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -9985,7 +9985,7 @@
         <v>1229</v>
       </c>
       <c r="C229">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -9996,7 +9996,7 @@
         <v>1230</v>
       </c>
       <c r="C230">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10007,7 +10007,7 @@
         <v>1231</v>
       </c>
       <c r="C231">
-        <v>1598</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -10018,7 +10018,7 @@
         <v>1232</v>
       </c>
       <c r="C232">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -10029,7 +10029,7 @@
         <v>1233</v>
       </c>
       <c r="C233">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -10040,7 +10040,7 @@
         <v>1234</v>
       </c>
       <c r="C234">
-        <v>239</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -10051,7 +10051,7 @@
         <v>1235</v>
       </c>
       <c r="C235">
-        <v>520</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -10062,7 +10062,7 @@
         <v>1236</v>
       </c>
       <c r="C236">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -10073,7 +10073,7 @@
         <v>1237</v>
       </c>
       <c r="C237">
-        <v>1801</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -10084,7 +10084,7 @@
         <v>1238</v>
       </c>
       <c r="C238">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -10095,7 +10095,7 @@
         <v>1239</v>
       </c>
       <c r="C239">
-        <v>1631</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -10106,7 +10106,7 @@
         <v>1240</v>
       </c>
       <c r="C240">
-        <v>907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -10117,7 +10117,7 @@
         <v>1241</v>
       </c>
       <c r="C241">
-        <v>200</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -10128,7 +10128,7 @@
         <v>1242</v>
       </c>
       <c r="C242">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -10139,7 +10139,7 @@
         <v>1243</v>
       </c>
       <c r="C243">
-        <v>212</v>
+        <v>38</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -10150,7 +10150,7 @@
         <v>1244</v>
       </c>
       <c r="C244">
-        <v>651</v>
+        <v>46</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -10161,7 +10161,7 @@
         <v>1245</v>
       </c>
       <c r="C245">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -10172,7 +10172,7 @@
         <v>1246</v>
       </c>
       <c r="C246">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -10183,7 +10183,7 @@
         <v>1247</v>
       </c>
       <c r="C247">
-        <v>1797</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -10194,7 +10194,7 @@
         <v>1248</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -10205,7 +10205,7 @@
         <v>1249</v>
       </c>
       <c r="C249">
-        <v>1122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -10216,7 +10216,7 @@
         <v>1250</v>
       </c>
       <c r="C250">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -10227,7 +10227,7 @@
         <v>1251</v>
       </c>
       <c r="C251">
-        <v>613</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -10238,7 +10238,7 @@
         <v>1252</v>
       </c>
       <c r="C252">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -10249,7 +10249,7 @@
         <v>1253</v>
       </c>
       <c r="C253">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -10260,7 +10260,7 @@
         <v>1254</v>
       </c>
       <c r="C254">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -10271,7 +10271,7 @@
         <v>1255</v>
       </c>
       <c r="C255">
-        <v>357</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -10282,7 +10282,7 @@
         <v>1256</v>
       </c>
       <c r="C256">
-        <v>496</v>
+        <v>193</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -10293,7 +10293,7 @@
         <v>1257</v>
       </c>
       <c r="C257">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -10304,7 +10304,7 @@
         <v>1258</v>
       </c>
       <c r="C258">
-        <v>499</v>
+        <v>116</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -10315,7 +10315,7 @@
         <v>1259</v>
       </c>
       <c r="C259">
-        <v>250</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -10326,7 +10326,7 @@
         <v>1260</v>
       </c>
       <c r="C260">
-        <v>725</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -10337,7 +10337,7 @@
         <v>1261</v>
       </c>
       <c r="C261">
-        <v>556</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -10348,7 +10348,7 @@
         <v>1262</v>
       </c>
       <c r="C262">
-        <v>3512</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -10359,7 +10359,7 @@
         <v>1263</v>
       </c>
       <c r="C263">
-        <v>319</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -10370,7 +10370,7 @@
         <v>1264</v>
       </c>
       <c r="C264">
-        <v>1778</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -10381,7 +10381,7 @@
         <v>1265</v>
       </c>
       <c r="C265">
-        <v>323</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -10392,7 +10392,7 @@
         <v>1266</v>
       </c>
       <c r="C266">
-        <v>590</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -10403,7 +10403,7 @@
         <v>1267</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -10414,7 +10414,7 @@
         <v>1268</v>
       </c>
       <c r="C268">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -10425,7 +10425,7 @@
         <v>1269</v>
       </c>
       <c r="C269">
-        <v>280</v>
+        <v>378</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -10436,7 +10436,7 @@
         <v>1270</v>
       </c>
       <c r="C270">
-        <v>785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -10447,7 +10447,7 @@
         <v>1271</v>
       </c>
       <c r="C271">
-        <v>489</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -10458,7 +10458,7 @@
         <v>1272</v>
       </c>
       <c r="C272">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -10469,7 +10469,7 @@
         <v>1273</v>
       </c>
       <c r="C273">
-        <v>675</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -10480,7 +10480,7 @@
         <v>1274</v>
       </c>
       <c r="C274">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -10491,7 +10491,7 @@
         <v>1275</v>
       </c>
       <c r="C275">
-        <v>148</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -10502,7 +10502,7 @@
         <v>1276</v>
       </c>
       <c r="C276">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -10513,7 +10513,7 @@
         <v>1277</v>
       </c>
       <c r="C277">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -10524,7 +10524,7 @@
         <v>1278</v>
       </c>
       <c r="C278">
-        <v>864</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -10535,7 +10535,7 @@
         <v>1279</v>
       </c>
       <c r="C279">
-        <v>224</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -10546,7 +10546,7 @@
         <v>1280</v>
       </c>
       <c r="C280">
-        <v>326</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -10557,7 +10557,7 @@
         <v>1281</v>
       </c>
       <c r="C281">
-        <v>796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -10568,7 +10568,7 @@
         <v>1282</v>
       </c>
       <c r="C282">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -10579,7 +10579,7 @@
         <v>1283</v>
       </c>
       <c r="C283">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -10590,7 +10590,7 @@
         <v>1284</v>
       </c>
       <c r="C284">
-        <v>2738</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -10601,7 +10601,7 @@
         <v>1285</v>
       </c>
       <c r="C285">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -10612,7 +10612,7 @@
         <v>1286</v>
       </c>
       <c r="C286">
-        <v>108</v>
+        <v>210</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -10623,7 +10623,7 @@
         <v>1287</v>
       </c>
       <c r="C287">
-        <v>327</v>
+        <v>69</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -10634,7 +10634,7 @@
         <v>1288</v>
       </c>
       <c r="C288">
-        <v>1325</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -10645,7 +10645,7 @@
         <v>1289</v>
       </c>
       <c r="C289">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -10656,7 +10656,7 @@
         <v>1290</v>
       </c>
       <c r="C290">
-        <v>660</v>
+        <v>55</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -10667,7 +10667,7 @@
         <v>1291</v>
       </c>
       <c r="C291">
-        <v>1047</v>
+        <v>28</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -10678,7 +10678,7 @@
         <v>1292</v>
       </c>
       <c r="C292">
-        <v>556</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -10689,7 +10689,7 @@
         <v>1293</v>
       </c>
       <c r="C293">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -10700,7 +10700,7 @@
         <v>1294</v>
       </c>
       <c r="C294">
-        <v>552</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -10711,7 +10711,7 @@
         <v>1295</v>
       </c>
       <c r="C295">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -10722,7 +10722,7 @@
         <v>1296</v>
       </c>
       <c r="C296">
-        <v>384</v>
+        <v>45</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -10733,7 +10733,7 @@
         <v>1297</v>
       </c>
       <c r="C297">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -10744,7 +10744,7 @@
         <v>1298</v>
       </c>
       <c r="C298">
-        <v>2337</v>
+        <v>132</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -10755,7 +10755,7 @@
         <v>1299</v>
       </c>
       <c r="C299">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -10766,7 +10766,7 @@
         <v>1300</v>
       </c>
       <c r="C300">
-        <v>247</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -10777,7 +10777,7 @@
         <v>1301</v>
       </c>
       <c r="C301">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -10788,7 +10788,7 @@
         <v>1302</v>
       </c>
       <c r="C302">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -10799,7 +10799,7 @@
         <v>1303</v>
       </c>
       <c r="C303">
-        <v>955</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -10810,7 +10810,7 @@
         <v>1304</v>
       </c>
       <c r="C304">
-        <v>322</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -10821,7 +10821,7 @@
         <v>1305</v>
       </c>
       <c r="C305">
-        <v>694</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -10832,7 +10832,7 @@
         <v>1306</v>
       </c>
       <c r="C306">
-        <v>467</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -10843,7 +10843,7 @@
         <v>1307</v>
       </c>
       <c r="C307">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -10854,7 +10854,7 @@
         <v>1308</v>
       </c>
       <c r="C308">
-        <v>1045</v>
+        <v>27</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -10865,7 +10865,7 @@
         <v>1309</v>
       </c>
       <c r="C309">
-        <v>1232</v>
+        <v>29</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -10876,7 +10876,7 @@
         <v>1310</v>
       </c>
       <c r="C310">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -10887,7 +10887,7 @@
         <v>1311</v>
       </c>
       <c r="C311">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -10898,7 +10898,7 @@
         <v>1312</v>
       </c>
       <c r="C312">
-        <v>976</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -10909,7 +10909,7 @@
         <v>1313</v>
       </c>
       <c r="C313">
-        <v>307</v>
+        <v>38</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -10920,7 +10920,7 @@
         <v>1314</v>
       </c>
       <c r="C314">
-        <v>948</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -10931,7 +10931,7 @@
         <v>1315</v>
       </c>
       <c r="C315">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -10942,7 +10942,7 @@
         <v>1316</v>
       </c>
       <c r="C316">
-        <v>216</v>
+        <v>32</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -10953,7 +10953,7 @@
         <v>1317</v>
       </c>
       <c r="C317">
-        <v>738</v>
+        <v>51</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -10964,7 +10964,7 @@
         <v>1318</v>
       </c>
       <c r="C318">
-        <v>360</v>
+        <v>183</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -10975,7 +10975,7 @@
         <v>1319</v>
       </c>
       <c r="C319">
-        <v>731</v>
+        <v>326</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -10986,7 +10986,7 @@
         <v>1320</v>
       </c>
       <c r="C320">
-        <v>3725</v>
+        <v>222</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -10997,7 +10997,7 @@
         <v>1321</v>
       </c>
       <c r="C321">
-        <v>895</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -11008,7 +11008,7 @@
         <v>1322</v>
       </c>
       <c r="C322">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -11019,7 +11019,7 @@
         <v>1323</v>
       </c>
       <c r="C323">
-        <v>162</v>
+        <v>32</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -11030,7 +11030,7 @@
         <v>1324</v>
       </c>
       <c r="C324">
-        <v>243</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -11041,7 +11041,7 @@
         <v>1325</v>
       </c>
       <c r="C325">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -11052,7 +11052,7 @@
         <v>1326</v>
       </c>
       <c r="C326">
-        <v>798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -11063,7 +11063,7 @@
         <v>1327</v>
       </c>
       <c r="C327">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -11074,7 +11074,7 @@
         <v>1328</v>
       </c>
       <c r="C328">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -11085,7 +11085,7 @@
         <v>1329</v>
       </c>
       <c r="C329">
-        <v>439</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -11096,7 +11096,7 @@
         <v>1330</v>
       </c>
       <c r="C330">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -11107,7 +11107,7 @@
         <v>1331</v>
       </c>
       <c r="C331">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -11118,7 +11118,7 @@
         <v>1332</v>
       </c>
       <c r="C332">
-        <v>261</v>
+        <v>182</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -11129,7 +11129,7 @@
         <v>1333</v>
       </c>
       <c r="C333">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -11140,7 +11140,7 @@
         <v>1334</v>
       </c>
       <c r="C334">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -11151,7 +11151,7 @@
         <v>1335</v>
       </c>
       <c r="C335">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -11162,7 +11162,7 @@
         <v>1336</v>
       </c>
       <c r="C336">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -11173,7 +11173,7 @@
         <v>1337</v>
       </c>
       <c r="C337">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -11184,7 +11184,7 @@
         <v>1338</v>
       </c>
       <c r="C338">
-        <v>25</v>
+        <v>155</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -11195,7 +11195,7 @@
         <v>1339</v>
       </c>
       <c r="C339">
-        <v>295</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -11206,7 +11206,7 @@
         <v>1340</v>
       </c>
       <c r="C340">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -11217,7 +11217,7 @@
         <v>1341</v>
       </c>
       <c r="C341">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -11228,7 +11228,7 @@
         <v>1342</v>
       </c>
       <c r="C342">
-        <v>283</v>
+        <v>53</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -11239,7 +11239,7 @@
         <v>1343</v>
       </c>
       <c r="C343">
-        <v>244</v>
+        <v>99</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -11250,7 +11250,7 @@
         <v>1344</v>
       </c>
       <c r="C344">
-        <v>373</v>
+        <v>157</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -11261,7 +11261,7 @@
         <v>1345</v>
       </c>
       <c r="C345">
-        <v>1164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -11272,7 +11272,7 @@
         <v>1346</v>
       </c>
       <c r="C346">
-        <v>281</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -11283,7 +11283,7 @@
         <v>1347</v>
       </c>
       <c r="C347">
-        <v>623</v>
+        <v>33</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -11294,7 +11294,7 @@
         <v>1348</v>
       </c>
       <c r="C348">
-        <v>246</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -11305,7 +11305,7 @@
         <v>1349</v>
       </c>
       <c r="C349">
-        <v>130</v>
+        <v>217</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -11316,7 +11316,7 @@
         <v>1350</v>
       </c>
       <c r="C350">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -11327,7 +11327,7 @@
         <v>1351</v>
       </c>
       <c r="C351">
-        <v>738</v>
+        <v>31</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -11338,7 +11338,7 @@
         <v>1352</v>
       </c>
       <c r="C352">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -11360,7 +11360,7 @@
         <v>1354</v>
       </c>
       <c r="C354">
-        <v>446</v>
+        <v>24</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -11371,7 +11371,7 @@
         <v>1355</v>
       </c>
       <c r="C355">
-        <v>1888</v>
+        <v>69</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -11382,7 +11382,7 @@
         <v>1356</v>
       </c>
       <c r="C356">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -11393,7 +11393,7 @@
         <v>1357</v>
       </c>
       <c r="C357">
-        <v>5273</v>
+        <v>73</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -11404,7 +11404,7 @@
         <v>1358</v>
       </c>
       <c r="C358">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -11415,7 +11415,7 @@
         <v>1359</v>
       </c>
       <c r="C359">
-        <v>349</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -11426,7 +11426,7 @@
         <v>1360</v>
       </c>
       <c r="C360">
-        <v>624</v>
+        <v>33</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -11437,7 +11437,7 @@
         <v>1361</v>
       </c>
       <c r="C361">
-        <v>1500</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -11448,7 +11448,7 @@
         <v>1362</v>
       </c>
       <c r="C362">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -11459,7 +11459,7 @@
         <v>1363</v>
       </c>
       <c r="C363">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -11470,7 +11470,7 @@
         <v>1364</v>
       </c>
       <c r="C364">
-        <v>499</v>
+        <v>55</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -11481,7 +11481,7 @@
         <v>1365</v>
       </c>
       <c r="C365">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -11492,7 +11492,7 @@
         <v>1366</v>
       </c>
       <c r="C366">
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -11503,7 +11503,7 @@
         <v>1367</v>
       </c>
       <c r="C367">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -11514,7 +11514,7 @@
         <v>1368</v>
       </c>
       <c r="C368">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -11525,7 +11525,7 @@
         <v>1369</v>
       </c>
       <c r="C369">
-        <v>748</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -11536,7 +11536,7 @@
         <v>1370</v>
       </c>
       <c r="C370">
-        <v>893</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -11547,7 +11547,7 @@
         <v>1371</v>
       </c>
       <c r="C371">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -11558,7 +11558,7 @@
         <v>1372</v>
       </c>
       <c r="C372">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -11569,7 +11569,7 @@
         <v>1373</v>
       </c>
       <c r="C373">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -11580,7 +11580,7 @@
         <v>1374</v>
       </c>
       <c r="C374">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -11591,7 +11591,7 @@
         <v>1375</v>
       </c>
       <c r="C375">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -11602,7 +11602,7 @@
         <v>1376</v>
       </c>
       <c r="C376">
-        <v>650</v>
+        <v>381</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -11613,7 +11613,7 @@
         <v>1377</v>
       </c>
       <c r="C377">
-        <v>638</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -11624,7 +11624,7 @@
         <v>1378</v>
       </c>
       <c r="C378">
-        <v>68</v>
+        <v>358</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -11635,7 +11635,7 @@
         <v>1379</v>
       </c>
       <c r="C379">
-        <v>574</v>
+        <v>56</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -11646,7 +11646,7 @@
         <v>1380</v>
       </c>
       <c r="C380">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -11657,7 +11657,7 @@
         <v>1381</v>
       </c>
       <c r="C381">
-        <v>725</v>
+        <v>75</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -11668,7 +11668,7 @@
         <v>1382</v>
       </c>
       <c r="C382">
-        <v>686</v>
+        <v>149</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -11679,7 +11679,7 @@
         <v>1383</v>
       </c>
       <c r="C383">
-        <v>526</v>
+        <v>22</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -11690,7 +11690,7 @@
         <v>1384</v>
       </c>
       <c r="C384">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -11701,7 +11701,7 @@
         <v>1385</v>
       </c>
       <c r="C385">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -11712,7 +11712,7 @@
         <v>1386</v>
       </c>
       <c r="C386">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -11723,7 +11723,7 @@
         <v>1387</v>
       </c>
       <c r="C387">
-        <v>94</v>
+        <v>170</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -11734,7 +11734,7 @@
         <v>1388</v>
       </c>
       <c r="C388">
-        <v>391</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -11745,7 +11745,7 @@
         <v>1389</v>
       </c>
       <c r="C389">
-        <v>1794</v>
+        <v>214</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -11756,7 +11756,7 @@
         <v>1390</v>
       </c>
       <c r="C390">
-        <v>401</v>
+        <v>71</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -11767,7 +11767,7 @@
         <v>1391</v>
       </c>
       <c r="C391">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -11778,7 +11778,7 @@
         <v>1392</v>
       </c>
       <c r="C392">
-        <v>1356</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -11789,7 +11789,7 @@
         <v>1393</v>
       </c>
       <c r="C393">
-        <v>890</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -11800,7 +11800,7 @@
         <v>1394</v>
       </c>
       <c r="C394">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -11811,7 +11811,7 @@
         <v>1395</v>
       </c>
       <c r="C395">
-        <v>1747</v>
+        <v>43</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -11822,7 +11822,7 @@
         <v>1396</v>
       </c>
       <c r="C396">
-        <v>285</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -11833,7 +11833,7 @@
         <v>1397</v>
       </c>
       <c r="C397">
-        <v>426</v>
+        <v>54</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -11844,7 +11844,7 @@
         <v>1398</v>
       </c>
       <c r="C398">
-        <v>260</v>
+        <v>70</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -11855,7 +11855,7 @@
         <v>1399</v>
       </c>
       <c r="C399">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -11866,7 +11866,7 @@
         <v>1400</v>
       </c>
       <c r="C400">
-        <v>335</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -11877,7 +11877,7 @@
         <v>1401</v>
       </c>
       <c r="C401">
-        <v>186</v>
+        <v>326</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -11888,7 +11888,7 @@
         <v>1402</v>
       </c>
       <c r="C402">
-        <v>296</v>
+        <v>147</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -11899,7 +11899,7 @@
         <v>1403</v>
       </c>
       <c r="C403">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -11910,7 +11910,7 @@
         <v>1404</v>
       </c>
       <c r="C404">
-        <v>3456</v>
+        <v>97</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -11921,7 +11921,7 @@
         <v>1405</v>
       </c>
       <c r="C405">
-        <v>205</v>
+        <v>115</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -11932,7 +11932,7 @@
         <v>1406</v>
       </c>
       <c r="C406">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -11943,7 +11943,7 @@
         <v>1407</v>
       </c>
       <c r="C407">
-        <v>2268</v>
+        <v>102</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -11954,7 +11954,7 @@
         <v>1408</v>
       </c>
       <c r="C408">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -11965,7 +11965,7 @@
         <v>1409</v>
       </c>
       <c r="C409">
-        <v>335</v>
+        <v>23</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -11976,7 +11976,7 @@
         <v>1410</v>
       </c>
       <c r="C410">
-        <v>1038</v>
+        <v>791</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -11987,7 +11987,7 @@
         <v>1411</v>
       </c>
       <c r="C411">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -11998,7 +11998,7 @@
         <v>1412</v>
       </c>
       <c r="C412">
-        <v>249</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -12009,7 +12009,7 @@
         <v>1413</v>
       </c>
       <c r="C413">
-        <v>186</v>
+        <v>54</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -12020,7 +12020,7 @@
         <v>1414</v>
       </c>
       <c r="C414">
-        <v>888</v>
+        <v>135</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -12031,7 +12031,7 @@
         <v>1415</v>
       </c>
       <c r="C415">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -12042,7 +12042,7 @@
         <v>1416</v>
       </c>
       <c r="C416">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -12053,7 +12053,7 @@
         <v>1417</v>
       </c>
       <c r="C417">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -12064,7 +12064,7 @@
         <v>1418</v>
       </c>
       <c r="C418">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -12075,7 +12075,7 @@
         <v>1419</v>
       </c>
       <c r="C419">
-        <v>1929</v>
+        <v>289</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -12086,7 +12086,7 @@
         <v>1420</v>
       </c>
       <c r="C420">
-        <v>419</v>
+        <v>175</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -12097,7 +12097,7 @@
         <v>1421</v>
       </c>
       <c r="C421">
-        <v>131</v>
+        <v>277</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -12108,7 +12108,7 @@
         <v>1422</v>
       </c>
       <c r="C422">
-        <v>1093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -12119,7 +12119,7 @@
         <v>1423</v>
       </c>
       <c r="C423">
-        <v>495</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -12130,7 +12130,7 @@
         <v>1424</v>
       </c>
       <c r="C424">
-        <v>1657</v>
+        <v>48</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -12141,7 +12141,7 @@
         <v>1425</v>
       </c>
       <c r="C425">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -12152,7 +12152,7 @@
         <v>1426</v>
       </c>
       <c r="C426">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -12163,7 +12163,7 @@
         <v>1427</v>
       </c>
       <c r="C427">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -12174,7 +12174,7 @@
         <v>1428</v>
       </c>
       <c r="C428">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -12185,7 +12185,7 @@
         <v>1429</v>
       </c>
       <c r="C429">
-        <v>283</v>
+        <v>181</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -12196,7 +12196,7 @@
         <v>1430</v>
       </c>
       <c r="C430">
-        <v>603</v>
+        <v>73</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -12207,7 +12207,7 @@
         <v>1431</v>
       </c>
       <c r="C431">
-        <v>2202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -12218,7 +12218,7 @@
         <v>1432</v>
       </c>
       <c r="C432">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -12229,7 +12229,7 @@
         <v>1433</v>
       </c>
       <c r="C433">
-        <v>941</v>
+        <v>97</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -12240,7 +12240,7 @@
         <v>1434</v>
       </c>
       <c r="C434">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -12251,7 +12251,7 @@
         <v>1435</v>
       </c>
       <c r="C435">
-        <v>141</v>
+        <v>303</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -12262,7 +12262,7 @@
         <v>1436</v>
       </c>
       <c r="C436">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -12273,7 +12273,7 @@
         <v>1437</v>
       </c>
       <c r="C437">
-        <v>793</v>
+        <v>206</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -12284,7 +12284,7 @@
         <v>1438</v>
       </c>
       <c r="C438">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -12295,7 +12295,7 @@
         <v>1439</v>
       </c>
       <c r="C439">
-        <v>294</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -12306,7 +12306,7 @@
         <v>1440</v>
       </c>
       <c r="C440">
-        <v>1284</v>
+        <v>138</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -12317,7 +12317,7 @@
         <v>1441</v>
       </c>
       <c r="C441">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -12328,7 +12328,7 @@
         <v>1442</v>
       </c>
       <c r="C442">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -12339,7 +12339,7 @@
         <v>1443</v>
       </c>
       <c r="C443">
-        <v>160</v>
+        <v>66</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -12350,7 +12350,7 @@
         <v>1444</v>
       </c>
       <c r="C444">
-        <v>1535</v>
+        <v>375</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -12361,7 +12361,7 @@
         <v>1445</v>
       </c>
       <c r="C445">
-        <v>3643</v>
+        <v>169</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -12372,7 +12372,7 @@
         <v>1446</v>
       </c>
       <c r="C446">
-        <v>1311</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -12383,7 +12383,7 @@
         <v>1447</v>
       </c>
       <c r="C447">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -12394,7 +12394,7 @@
         <v>1448</v>
       </c>
       <c r="C448">
-        <v>124</v>
+        <v>42</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -12405,7 +12405,7 @@
         <v>1449</v>
       </c>
       <c r="C449">
-        <v>253</v>
+        <v>98</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -12416,7 +12416,7 @@
         <v>1450</v>
       </c>
       <c r="C450">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -12427,7 +12427,7 @@
         <v>1451</v>
       </c>
       <c r="C451">
-        <v>412</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -12438,7 +12438,7 @@
         <v>1452</v>
       </c>
       <c r="C452">
-        <v>250</v>
+        <v>206</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -12449,7 +12449,7 @@
         <v>1453</v>
       </c>
       <c r="C453">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -12460,7 +12460,7 @@
         <v>1454</v>
       </c>
       <c r="C454">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -12471,7 +12471,7 @@
         <v>1455</v>
       </c>
       <c r="C455">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -12482,7 +12482,7 @@
         <v>1456</v>
       </c>
       <c r="C456">
-        <v>384</v>
+        <v>37</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -12493,7 +12493,7 @@
         <v>1457</v>
       </c>
       <c r="C457">
-        <v>916</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -12504,7 +12504,7 @@
         <v>1458</v>
       </c>
       <c r="C458">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -12515,7 +12515,7 @@
         <v>1459</v>
       </c>
       <c r="C459">
-        <v>301</v>
+        <v>35</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -12526,7 +12526,7 @@
         <v>1460</v>
       </c>
       <c r="C460">
-        <v>1483</v>
+        <v>128</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -12537,7 +12537,7 @@
         <v>1461</v>
       </c>
       <c r="C461">
-        <v>485</v>
+        <v>56</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -12548,7 +12548,7 @@
         <v>1462</v>
       </c>
       <c r="C462">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -12559,7 +12559,7 @@
         <v>1463</v>
       </c>
       <c r="C463">
-        <v>116</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -12570,7 +12570,7 @@
         <v>1464</v>
       </c>
       <c r="C464">
-        <v>3983</v>
+        <v>295</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -12581,7 +12581,7 @@
         <v>1465</v>
       </c>
       <c r="C465">
-        <v>1592</v>
+        <v>27</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -12592,7 +12592,7 @@
         <v>1466</v>
       </c>
       <c r="C466">
-        <v>371</v>
+        <v>119</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -12603,7 +12603,7 @@
         <v>1467</v>
       </c>
       <c r="C467">
-        <v>247</v>
+        <v>54</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -12614,7 +12614,7 @@
         <v>1468</v>
       </c>
       <c r="C468">
-        <v>2072</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -12625,7 +12625,7 @@
         <v>1469</v>
       </c>
       <c r="C469">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -12636,7 +12636,7 @@
         <v>1470</v>
       </c>
       <c r="C470">
-        <v>211</v>
+        <v>51</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -12647,7 +12647,7 @@
         <v>1471</v>
       </c>
       <c r="C471">
-        <v>517</v>
+        <v>19</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -12658,7 +12658,7 @@
         <v>1472</v>
       </c>
       <c r="C472">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -12669,7 +12669,7 @@
         <v>1473</v>
       </c>
       <c r="C473">
-        <v>4479</v>
+        <v>232</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -12680,7 +12680,7 @@
         <v>1474</v>
       </c>
       <c r="C474">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -12691,7 +12691,7 @@
         <v>1475</v>
       </c>
       <c r="C475">
-        <v>207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -12702,7 +12702,7 @@
         <v>1476</v>
       </c>
       <c r="C476">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -12713,7 +12713,7 @@
         <v>1477</v>
       </c>
       <c r="C477">
-        <v>319</v>
+        <v>87</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -12724,7 +12724,7 @@
         <v>1478</v>
       </c>
       <c r="C478">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -12735,7 +12735,7 @@
         <v>1479</v>
       </c>
       <c r="C479">
-        <v>716</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -12746,7 +12746,7 @@
         <v>1480</v>
       </c>
       <c r="C480">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -12757,7 +12757,7 @@
         <v>1481</v>
       </c>
       <c r="C481">
-        <v>2171</v>
+        <v>109</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -12768,7 +12768,7 @@
         <v>1482</v>
       </c>
       <c r="C482">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -12779,7 +12779,7 @@
         <v>1483</v>
       </c>
       <c r="C483">
-        <v>331</v>
+        <v>51</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -12790,7 +12790,7 @@
         <v>1484</v>
       </c>
       <c r="C484">
-        <v>803</v>
+        <v>67</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -12801,7 +12801,7 @@
         <v>1485</v>
       </c>
       <c r="C485">
-        <v>157</v>
+        <v>890</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -12812,7 +12812,7 @@
         <v>1486</v>
       </c>
       <c r="C486">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -12823,7 +12823,7 @@
         <v>1487</v>
       </c>
       <c r="C487">
-        <v>2</v>
+        <v>533</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -12834,7 +12834,7 @@
         <v>1488</v>
       </c>
       <c r="C488">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -12845,7 +12845,7 @@
         <v>1489</v>
       </c>
       <c r="C489">
-        <v>823</v>
+        <v>129</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -12856,7 +12856,7 @@
         <v>1490</v>
       </c>
       <c r="C490">
-        <v>1026</v>
+        <v>19</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -12867,7 +12867,7 @@
         <v>1491</v>
       </c>
       <c r="C491">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -12878,7 +12878,7 @@
         <v>1492</v>
       </c>
       <c r="C492">
-        <v>359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -12889,7 +12889,7 @@
         <v>1493</v>
       </c>
       <c r="C493">
-        <v>427</v>
+        <v>73</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -12900,7 +12900,7 @@
         <v>1494</v>
       </c>
       <c r="C494">
-        <v>388</v>
+        <v>90</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -12911,7 +12911,7 @@
         <v>1495</v>
       </c>
       <c r="C495">
-        <v>2266</v>
+        <v>31</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -12922,7 +12922,7 @@
         <v>1496</v>
       </c>
       <c r="C496">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -12933,7 +12933,7 @@
         <v>1497</v>
       </c>
       <c r="C497">
-        <v>3810</v>
+        <v>27</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -12944,7 +12944,7 @@
         <v>1498</v>
       </c>
       <c r="C498">
-        <v>685</v>
+        <v>35</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -12955,7 +12955,7 @@
         <v>1499</v>
       </c>
       <c r="C499">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -12966,7 +12966,7 @@
         <v>1500</v>
       </c>
       <c r="C500">
-        <v>690</v>
+        <v>98</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -12977,7 +12977,7 @@
         <v>1501</v>
       </c>
       <c r="C501">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -12988,7 +12988,7 @@
         <v>1502</v>
       </c>
       <c r="C502">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -12999,7 +12999,7 @@
         <v>1503</v>
       </c>
       <c r="C503">
-        <v>1403</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -13010,7 +13010,7 @@
         <v>1504</v>
       </c>
       <c r="C504">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -13021,7 +13021,7 @@
         <v>1505</v>
       </c>
       <c r="C505">
-        <v>1379</v>
+        <v>91</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -13032,7 +13032,7 @@
         <v>1506</v>
       </c>
       <c r="C506">
-        <v>691</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -13043,7 +13043,7 @@
         <v>1507</v>
       </c>
       <c r="C507">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -13054,7 +13054,7 @@
         <v>1508</v>
       </c>
       <c r="C508">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -13065,7 +13065,7 @@
         <v>1509</v>
       </c>
       <c r="C509">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -13076,7 +13076,7 @@
         <v>1510</v>
       </c>
       <c r="C510">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -13087,7 +13087,7 @@
         <v>1511</v>
       </c>
       <c r="C511">
-        <v>368</v>
+        <v>23</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -13098,7 +13098,7 @@
         <v>1512</v>
       </c>
       <c r="C512">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -13109,7 +13109,7 @@
         <v>1513</v>
       </c>
       <c r="C513">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -13120,7 +13120,7 @@
         <v>1514</v>
       </c>
       <c r="C514">
-        <v>289</v>
+        <v>91</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -13131,7 +13131,7 @@
         <v>1515</v>
       </c>
       <c r="C515">
-        <v>307</v>
+        <v>22</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -13142,7 +13142,7 @@
         <v>1516</v>
       </c>
       <c r="C516">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -13153,7 +13153,7 @@
         <v>1517</v>
       </c>
       <c r="C517">
-        <v>1480</v>
+        <v>45</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -13164,7 +13164,7 @@
         <v>1518</v>
       </c>
       <c r="C518">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -13175,7 +13175,7 @@
         <v>1519</v>
       </c>
       <c r="C519">
-        <v>653</v>
+        <v>39</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -13186,7 +13186,7 @@
         <v>1520</v>
       </c>
       <c r="C520">
-        <v>384</v>
+        <v>630</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -13197,7 +13197,7 @@
         <v>1521</v>
       </c>
       <c r="C521">
-        <v>511</v>
+        <v>51</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -13208,7 +13208,7 @@
         <v>1522</v>
       </c>
       <c r="C522">
-        <v>441</v>
+        <v>95</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -13219,7 +13219,7 @@
         <v>1523</v>
       </c>
       <c r="C523">
-        <v>1567</v>
+        <v>139</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -13230,7 +13230,7 @@
         <v>1524</v>
       </c>
       <c r="C524">
-        <v>4027</v>
+        <v>203</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -13241,7 +13241,7 @@
         <v>1525</v>
       </c>
       <c r="C525">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -13252,7 +13252,7 @@
         <v>1526</v>
       </c>
       <c r="C526">
-        <v>161</v>
+        <v>25</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -13263,7 +13263,7 @@
         <v>1527</v>
       </c>
       <c r="C527">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -13274,7 +13274,7 @@
         <v>1528</v>
       </c>
       <c r="C528">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -13285,7 +13285,7 @@
         <v>1529</v>
       </c>
       <c r="C529">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -13296,7 +13296,7 @@
         <v>1530</v>
       </c>
       <c r="C530">
-        <v>1670</v>
+        <v>85</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -13307,7 +13307,7 @@
         <v>1531</v>
       </c>
       <c r="C531">
-        <v>571</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -13318,7 +13318,7 @@
         <v>1532</v>
       </c>
       <c r="C532">
-        <v>559</v>
+        <v>67</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -13329,7 +13329,7 @@
         <v>1533</v>
       </c>
       <c r="C533">
-        <v>591</v>
+        <v>108</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -13340,7 +13340,7 @@
         <v>1534</v>
       </c>
       <c r="C534">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -13351,7 +13351,7 @@
         <v>1535</v>
       </c>
       <c r="C535">
-        <v>218</v>
+        <v>9</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -13362,7 +13362,7 @@
         <v>1536</v>
       </c>
       <c r="C536">
-        <v>301</v>
+        <v>37</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -13373,7 +13373,7 @@
         <v>1537</v>
       </c>
       <c r="C537">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -13384,7 +13384,7 @@
         <v>1538</v>
       </c>
       <c r="C538">
-        <v>753</v>
+        <v>41</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -13395,7 +13395,7 @@
         <v>1539</v>
       </c>
       <c r="C539">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -13406,7 +13406,7 @@
         <v>1540</v>
       </c>
       <c r="C540">
-        <v>816</v>
+        <v>15</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -13417,7 +13417,7 @@
         <v>1541</v>
       </c>
       <c r="C541">
-        <v>438</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -13428,7 +13428,7 @@
         <v>1542</v>
       </c>
       <c r="C542">
-        <v>252</v>
+        <v>591</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -13439,7 +13439,7 @@
         <v>1543</v>
       </c>
       <c r="C543">
-        <v>506</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -13450,7 +13450,7 @@
         <v>1544</v>
       </c>
       <c r="C544">
-        <v>337</v>
+        <v>54</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -13461,7 +13461,7 @@
         <v>1545</v>
       </c>
       <c r="C545">
-        <v>184</v>
+        <v>125</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -13472,7 +13472,7 @@
         <v>1546</v>
       </c>
       <c r="C546">
-        <v>726</v>
+        <v>92</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -13483,7 +13483,7 @@
         <v>1547</v>
       </c>
       <c r="C547">
-        <v>159</v>
+        <v>43</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -13494,7 +13494,7 @@
         <v>1548</v>
       </c>
       <c r="C548">
-        <v>178</v>
+        <v>45</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -13505,7 +13505,7 @@
         <v>1549</v>
       </c>
       <c r="C549">
-        <v>719</v>
+        <v>109</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -13516,7 +13516,7 @@
         <v>1550</v>
       </c>
       <c r="C550">
-        <v>421</v>
+        <v>142</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -13527,7 +13527,7 @@
         <v>1551</v>
       </c>
       <c r="C551">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -13538,7 +13538,7 @@
         <v>1552</v>
       </c>
       <c r="C552">
-        <v>834</v>
+        <v>157</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -13549,7 +13549,7 @@
         <v>1553</v>
       </c>
       <c r="C553">
-        <v>916</v>
+        <v>32</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -13560,7 +13560,7 @@
         <v>1554</v>
       </c>
       <c r="C554">
-        <v>1414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -13571,7 +13571,7 @@
         <v>1555</v>
       </c>
       <c r="C555">
-        <v>652</v>
+        <v>49</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -13582,7 +13582,7 @@
         <v>1556</v>
       </c>
       <c r="C556">
-        <v>723</v>
+        <v>191</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -13593,7 +13593,7 @@
         <v>1557</v>
       </c>
       <c r="C557">
-        <v>115</v>
+        <v>278</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -13604,7 +13604,7 @@
         <v>1558</v>
       </c>
       <c r="C558">
-        <v>3609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -13615,7 +13615,7 @@
         <v>1559</v>
       </c>
       <c r="C559">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -13626,7 +13626,7 @@
         <v>1560</v>
       </c>
       <c r="C560">
-        <v>417</v>
+        <v>100</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -13637,7 +13637,7 @@
         <v>1561</v>
       </c>
       <c r="C561">
-        <v>174</v>
+        <v>462</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -13648,7 +13648,7 @@
         <v>1562</v>
       </c>
       <c r="C562">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -13659,7 +13659,7 @@
         <v>1563</v>
       </c>
       <c r="C563">
-        <v>418</v>
+        <v>17</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -13670,7 +13670,7 @@
         <v>1564</v>
       </c>
       <c r="C564">
-        <v>192</v>
+        <v>264</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -13681,7 +13681,7 @@
         <v>1565</v>
       </c>
       <c r="C565">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -13692,7 +13692,7 @@
         <v>1566</v>
       </c>
       <c r="C566">
-        <v>1218</v>
+        <v>105</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -13703,7 +13703,7 @@
         <v>1567</v>
       </c>
       <c r="C567">
-        <v>452</v>
+        <v>44</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -13714,7 +13714,7 @@
         <v>1568</v>
       </c>
       <c r="C568">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -13725,7 +13725,7 @@
         <v>1569</v>
       </c>
       <c r="C569">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -13736,7 +13736,7 @@
         <v>1570</v>
       </c>
       <c r="C570">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -13747,7 +13747,7 @@
         <v>1571</v>
       </c>
       <c r="C571">
-        <v>2112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -13758,7 +13758,7 @@
         <v>1572</v>
       </c>
       <c r="C572">
-        <v>577</v>
+        <v>63</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -13769,7 +13769,7 @@
         <v>1573</v>
       </c>
       <c r="C573">
-        <v>2736</v>
+        <v>78</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -13780,7 +13780,7 @@
         <v>1574</v>
       </c>
       <c r="C574">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -13791,7 +13791,7 @@
         <v>1575</v>
       </c>
       <c r="C575">
-        <v>1238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -13802,7 +13802,7 @@
         <v>1576</v>
       </c>
       <c r="C576">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -13813,7 +13813,7 @@
         <v>1577</v>
       </c>
       <c r="C577">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -13824,7 +13824,7 @@
         <v>1578</v>
       </c>
       <c r="C578">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -13835,7 +13835,7 @@
         <v>1579</v>
       </c>
       <c r="C579">
-        <v>126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -13846,7 +13846,7 @@
         <v>1580</v>
       </c>
       <c r="C580">
-        <v>250</v>
+        <v>147</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -13857,7 +13857,7 @@
         <v>1581</v>
       </c>
       <c r="C581">
-        <v>1495</v>
+        <v>100</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -13868,7 +13868,7 @@
         <v>1582</v>
       </c>
       <c r="C582">
-        <v>424</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -13879,7 +13879,7 @@
         <v>1583</v>
       </c>
       <c r="C583">
-        <v>2350</v>
+        <v>54</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -13890,7 +13890,7 @@
         <v>1584</v>
       </c>
       <c r="C584">
-        <v>2765</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -13901,7 +13901,7 @@
         <v>1585</v>
       </c>
       <c r="C585">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -13912,7 +13912,7 @@
         <v>1586</v>
       </c>
       <c r="C586">
-        <v>454</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -13923,7 +13923,7 @@
         <v>1587</v>
       </c>
       <c r="C587">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -13934,7 +13934,7 @@
         <v>1588</v>
       </c>
       <c r="C588">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -13945,7 +13945,7 @@
         <v>1589</v>
       </c>
       <c r="C589">
-        <v>209</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -13956,7 +13956,7 @@
         <v>1590</v>
       </c>
       <c r="C590">
-        <v>1805</v>
+        <v>9</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -13967,7 +13967,7 @@
         <v>1591</v>
       </c>
       <c r="C591">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -13978,7 +13978,7 @@
         <v>1592</v>
       </c>
       <c r="C592">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -13989,7 +13989,7 @@
         <v>1593</v>
       </c>
       <c r="C593">
-        <v>269</v>
+        <v>107</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -14000,7 +14000,7 @@
         <v>1594</v>
       </c>
       <c r="C594">
-        <v>427</v>
+        <v>304</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -14011,7 +14011,7 @@
         <v>1595</v>
       </c>
       <c r="C595">
-        <v>1094</v>
+        <v>26</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -14022,7 +14022,7 @@
         <v>1596</v>
       </c>
       <c r="C596">
-        <v>2088</v>
+        <v>25</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -14033,7 +14033,7 @@
         <v>1597</v>
       </c>
       <c r="C597">
-        <v>455</v>
+        <v>32</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -14044,7 +14044,7 @@
         <v>1598</v>
       </c>
       <c r="C598">
-        <v>224</v>
+        <v>74</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -14055,7 +14055,7 @@
         <v>1599</v>
       </c>
       <c r="C599">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -14066,7 +14066,7 @@
         <v>1600</v>
       </c>
       <c r="C600">
-        <v>184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -14077,7 +14077,7 @@
         <v>1601</v>
       </c>
       <c r="C601">
-        <v>616</v>
+        <v>113</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -14088,7 +14088,7 @@
         <v>1602</v>
       </c>
       <c r="C602">
-        <v>364</v>
+        <v>45</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -14099,7 +14099,7 @@
         <v>1603</v>
       </c>
       <c r="C603">
-        <v>334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -14110,7 +14110,7 @@
         <v>1604</v>
       </c>
       <c r="C604">
-        <v>174</v>
+        <v>529</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -14121,7 +14121,7 @@
         <v>1605</v>
       </c>
       <c r="C605">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -14132,7 +14132,7 @@
         <v>1606</v>
       </c>
       <c r="C606">
-        <v>180</v>
+        <v>53</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -14143,7 +14143,7 @@
         <v>1607</v>
       </c>
       <c r="C607">
-        <v>3152</v>
+        <v>44</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -14154,7 +14154,7 @@
         <v>1608</v>
       </c>
       <c r="C608">
-        <v>603</v>
+        <v>32</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -14165,7 +14165,7 @@
         <v>1609</v>
       </c>
       <c r="C609">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -14176,7 +14176,7 @@
         <v>1610</v>
       </c>
       <c r="C610">
-        <v>498</v>
+        <v>89</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -14187,7 +14187,7 @@
         <v>1611</v>
       </c>
       <c r="C611">
-        <v>1320</v>
+        <v>29</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -14198,7 +14198,7 @@
         <v>1612</v>
       </c>
       <c r="C612">
-        <v>225</v>
+        <v>134</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -14209,7 +14209,7 @@
         <v>1613</v>
       </c>
       <c r="C613">
-        <v>236</v>
+        <v>33</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -14220,7 +14220,7 @@
         <v>1614</v>
       </c>
       <c r="C614">
-        <v>205</v>
+        <v>48</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -14231,7 +14231,7 @@
         <v>1615</v>
       </c>
       <c r="C615">
-        <v>411</v>
+        <v>81</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -14242,7 +14242,7 @@
         <v>1616</v>
       </c>
       <c r="C616">
-        <v>2364</v>
+        <v>93</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -14253,7 +14253,7 @@
         <v>1617</v>
       </c>
       <c r="C617">
-        <v>1380</v>
+        <v>77</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -14264,7 +14264,7 @@
         <v>1618</v>
       </c>
       <c r="C618">
-        <v>172</v>
+        <v>364</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -14275,7 +14275,7 @@
         <v>1619</v>
       </c>
       <c r="C619">
-        <v>110</v>
+        <v>412</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -14286,7 +14286,7 @@
         <v>1620</v>
       </c>
       <c r="C620">
-        <v>311</v>
+        <v>76</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -14297,7 +14297,7 @@
         <v>1621</v>
       </c>
       <c r="C621">
-        <v>634</v>
+        <v>102</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -14308,7 +14308,7 @@
         <v>1622</v>
       </c>
       <c r="C622">
-        <v>1375</v>
+        <v>102</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -14319,7 +14319,7 @@
         <v>1623</v>
       </c>
       <c r="C623">
-        <v>1478</v>
+        <v>80</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -14330,7 +14330,7 @@
         <v>1624</v>
       </c>
       <c r="C624">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -14341,7 +14341,7 @@
         <v>1625</v>
       </c>
       <c r="C625">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -14352,7 +14352,7 @@
         <v>1626</v>
       </c>
       <c r="C626">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -14363,7 +14363,7 @@
         <v>1627</v>
       </c>
       <c r="C627">
-        <v>125</v>
+        <v>37</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -14374,7 +14374,7 @@
         <v>1628</v>
       </c>
       <c r="C628">
-        <v>1492</v>
+        <v>35</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -14385,7 +14385,7 @@
         <v>1629</v>
       </c>
       <c r="C629">
-        <v>1581</v>
+        <v>8</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -14396,7 +14396,7 @@
         <v>1630</v>
       </c>
       <c r="C630">
-        <v>1395</v>
+        <v>43</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -14407,7 +14407,7 @@
         <v>1631</v>
       </c>
       <c r="C631">
-        <v>2040</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -14418,7 +14418,7 @@
         <v>1632</v>
       </c>
       <c r="C632">
-        <v>252</v>
+        <v>43</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -14429,7 +14429,7 @@
         <v>1633</v>
       </c>
       <c r="C633">
-        <v>1109</v>
+        <v>227</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -14440,7 +14440,7 @@
         <v>1634</v>
       </c>
       <c r="C634">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -14451,7 +14451,7 @@
         <v>1635</v>
       </c>
       <c r="C635">
-        <v>108</v>
+        <v>5</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -14462,7 +14462,7 @@
         <v>1636</v>
       </c>
       <c r="C636">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -14473,7 +14473,7 @@
         <v>1637</v>
       </c>
       <c r="C637">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -14484,7 +14484,7 @@
         <v>1638</v>
       </c>
       <c r="C638">
-        <v>912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -14495,7 +14495,7 @@
         <v>1639</v>
       </c>
       <c r="C639">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -14517,7 +14517,7 @@
         <v>1641</v>
       </c>
       <c r="C641">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -14528,7 +14528,7 @@
         <v>1642</v>
       </c>
       <c r="C642">
-        <v>335</v>
+        <v>50</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -14539,7 +14539,7 @@
         <v>1643</v>
       </c>
       <c r="C643">
-        <v>897</v>
+        <v>72</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -14550,7 +14550,7 @@
         <v>1644</v>
       </c>
       <c r="C644">
-        <v>1831</v>
+        <v>153</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -14561,7 +14561,7 @@
         <v>1645</v>
       </c>
       <c r="C645">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -14572,7 +14572,7 @@
         <v>1646</v>
       </c>
       <c r="C646">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -14583,7 +14583,7 @@
         <v>1647</v>
       </c>
       <c r="C647">
-        <v>257</v>
+        <v>100</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -14594,7 +14594,7 @@
         <v>1648</v>
       </c>
       <c r="C648">
-        <v>814</v>
+        <v>142</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -14605,7 +14605,7 @@
         <v>1649</v>
       </c>
       <c r="C649">
-        <v>13</v>
+        <v>331</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -14616,7 +14616,7 @@
         <v>1650</v>
       </c>
       <c r="C650">
-        <v>148</v>
+        <v>52</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -14627,7 +14627,7 @@
         <v>1651</v>
       </c>
       <c r="C651">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -14638,7 +14638,7 @@
         <v>1652</v>
       </c>
       <c r="C652">
-        <v>342</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -14649,7 +14649,7 @@
         <v>1653</v>
       </c>
       <c r="C653">
-        <v>1833</v>
+        <v>75</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -14660,7 +14660,7 @@
         <v>1654</v>
       </c>
       <c r="C654">
-        <v>272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -14671,7 +14671,7 @@
         <v>1655</v>
       </c>
       <c r="C655">
-        <v>831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -14682,7 +14682,7 @@
         <v>1656</v>
       </c>
       <c r="C656">
-        <v>1128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -14693,7 +14693,7 @@
         <v>1657</v>
       </c>
       <c r="C657">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -14704,7 +14704,7 @@
         <v>1658</v>
       </c>
       <c r="C658">
-        <v>1708</v>
+        <v>60</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -14715,7 +14715,7 @@
         <v>1659</v>
       </c>
       <c r="C659">
-        <v>226</v>
+        <v>952</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -14726,7 +14726,7 @@
         <v>1660</v>
       </c>
       <c r="C660">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -14737,7 +14737,7 @@
         <v>1661</v>
       </c>
       <c r="C661">
-        <v>484</v>
+        <v>35</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -14748,7 +14748,7 @@
         <v>1662</v>
       </c>
       <c r="C662">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -14759,7 +14759,7 @@
         <v>1663</v>
       </c>
       <c r="C663">
-        <v>260</v>
+        <v>47</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -14770,7 +14770,7 @@
         <v>1664</v>
       </c>
       <c r="C664">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -14781,7 +14781,7 @@
         <v>1665</v>
       </c>
       <c r="C665">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -14792,7 +14792,7 @@
         <v>1666</v>
       </c>
       <c r="C666">
-        <v>769</v>
+        <v>44</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -14803,7 +14803,7 @@
         <v>1667</v>
       </c>
       <c r="C667">
-        <v>479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -14814,7 +14814,7 @@
         <v>1668</v>
       </c>
       <c r="C668">
-        <v>250</v>
+        <v>151</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -14825,7 +14825,7 @@
         <v>1669</v>
       </c>
       <c r="C669">
-        <v>4222</v>
+        <v>6</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -14836,7 +14836,7 @@
         <v>1670</v>
       </c>
       <c r="C670">
-        <v>743</v>
+        <v>21</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -14847,7 +14847,7 @@
         <v>1671</v>
       </c>
       <c r="C671">
-        <v>162</v>
+        <v>223</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -14858,7 +14858,7 @@
         <v>1672</v>
       </c>
       <c r="C672">
-        <v>817</v>
+        <v>132</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -14869,7 +14869,7 @@
         <v>1673</v>
       </c>
       <c r="C673">
-        <v>561</v>
+        <v>22</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -14880,7 +14880,7 @@
         <v>1674</v>
       </c>
       <c r="C674">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -14891,7 +14891,7 @@
         <v>1675</v>
       </c>
       <c r="C675">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -14902,7 +14902,7 @@
         <v>1676</v>
       </c>
       <c r="C676">
-        <v>1597</v>
+        <v>12</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -14913,7 +14913,7 @@
         <v>1677</v>
       </c>
       <c r="C677">
-        <v>770</v>
+        <v>151</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -14924,7 +14924,7 @@
         <v>1678</v>
       </c>
       <c r="C678">
-        <v>2060</v>
+        <v>24</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -14935,7 +14935,7 @@
         <v>1679</v>
       </c>
       <c r="C679">
-        <v>612</v>
+        <v>64</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -14946,7 +14946,7 @@
         <v>1680</v>
       </c>
       <c r="C680">
-        <v>327</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -14957,7 +14957,7 @@
         <v>1681</v>
       </c>
       <c r="C681">
-        <v>450</v>
+        <v>42</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -14968,7 +14968,7 @@
         <v>1682</v>
       </c>
       <c r="C682">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -14979,7 +14979,7 @@
         <v>1683</v>
       </c>
       <c r="C683">
-        <v>39</v>
+        <v>158</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -14990,7 +14990,7 @@
         <v>1684</v>
       </c>
       <c r="C684">
-        <v>212</v>
+        <v>419</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -15001,7 +15001,7 @@
         <v>1685</v>
       </c>
       <c r="C685">
-        <v>946</v>
+        <v>75</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -15012,7 +15012,7 @@
         <v>1686</v>
       </c>
       <c r="C686">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -15023,7 +15023,7 @@
         <v>1687</v>
       </c>
       <c r="C687">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -15034,7 +15034,7 @@
         <v>1688</v>
       </c>
       <c r="C688">
-        <v>361</v>
+        <v>24</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -15045,7 +15045,7 @@
         <v>1689</v>
       </c>
       <c r="C689">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -15056,7 +15056,7 @@
         <v>1690</v>
       </c>
       <c r="C690">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -15067,7 +15067,7 @@
         <v>1691</v>
       </c>
       <c r="C691">
-        <v>988</v>
+        <v>12</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -15078,7 +15078,7 @@
         <v>1692</v>
       </c>
       <c r="C692">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -15089,7 +15089,7 @@
         <v>1693</v>
       </c>
       <c r="C693">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -15100,7 +15100,7 @@
         <v>1694</v>
       </c>
       <c r="C694">
-        <v>567</v>
+        <v>13</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -15111,7 +15111,7 @@
         <v>1695</v>
       </c>
       <c r="C695">
-        <v>262</v>
+        <v>117</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -15122,7 +15122,7 @@
         <v>1696</v>
       </c>
       <c r="C696">
-        <v>245</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -15133,7 +15133,7 @@
         <v>1697</v>
       </c>
       <c r="C697">
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -15144,7 +15144,7 @@
         <v>1698</v>
       </c>
       <c r="C698">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -15155,7 +15155,7 @@
         <v>1699</v>
       </c>
       <c r="C699">
-        <v>48</v>
+        <v>129</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -15166,7 +15166,7 @@
         <v>1700</v>
       </c>
       <c r="C700">
-        <v>527</v>
+        <v>17</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -15177,7 +15177,7 @@
         <v>1701</v>
       </c>
       <c r="C701">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -15188,7 +15188,7 @@
         <v>1702</v>
       </c>
       <c r="C702">
-        <v>868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -15199,7 +15199,7 @@
         <v>1703</v>
       </c>
       <c r="C703">
-        <v>968</v>
+        <v>64</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -15210,7 +15210,7 @@
         <v>1704</v>
       </c>
       <c r="C704">
-        <v>208</v>
+        <v>125</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -15221,7 +15221,7 @@
         <v>1705</v>
       </c>
       <c r="C705">
-        <v>612</v>
+        <v>16</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -15232,7 +15232,7 @@
         <v>1706</v>
       </c>
       <c r="C706">
-        <v>1669</v>
+        <v>42</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -15243,7 +15243,7 @@
         <v>1707</v>
       </c>
       <c r="C707">
-        <v>866</v>
+        <v>16</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -15254,7 +15254,7 @@
         <v>1708</v>
       </c>
       <c r="C708">
-        <v>6</v>
+        <v>217</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -15265,7 +15265,7 @@
         <v>1709</v>
       </c>
       <c r="C709">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -15276,7 +15276,7 @@
         <v>1710</v>
       </c>
       <c r="C710">
-        <v>281</v>
+        <v>103</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -15287,7 +15287,7 @@
         <v>1711</v>
       </c>
       <c r="C711">
-        <v>1086</v>
+        <v>219</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -15298,7 +15298,7 @@
         <v>1712</v>
       </c>
       <c r="C712">
-        <v>1350</v>
+        <v>30</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -15309,7 +15309,7 @@
         <v>1713</v>
       </c>
       <c r="C713">
-        <v>530</v>
+        <v>231</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -15320,7 +15320,7 @@
         <v>1714</v>
       </c>
       <c r="C714">
-        <v>158</v>
+        <v>61</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -15331,7 +15331,7 @@
         <v>1715</v>
       </c>
       <c r="C715">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -15342,7 +15342,7 @@
         <v>1716</v>
       </c>
       <c r="C716">
-        <v>244</v>
+        <v>23</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -15353,7 +15353,7 @@
         <v>1717</v>
       </c>
       <c r="C717">
-        <v>2754</v>
+        <v>133</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -15364,7 +15364,7 @@
         <v>1718</v>
       </c>
       <c r="C718">
-        <v>637</v>
+        <v>20</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -15375,7 +15375,7 @@
         <v>1719</v>
       </c>
       <c r="C719">
-        <v>234</v>
+        <v>26</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -15386,7 +15386,7 @@
         <v>1720</v>
       </c>
       <c r="C720">
-        <v>1471</v>
+        <v>48</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -15397,7 +15397,7 @@
         <v>1721</v>
       </c>
       <c r="C721">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -15408,7 +15408,7 @@
         <v>1722</v>
       </c>
       <c r="C722">
-        <v>3481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -15419,7 +15419,7 @@
         <v>1723</v>
       </c>
       <c r="C723">
-        <v>2655</v>
+        <v>83</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -15430,7 +15430,7 @@
         <v>1724</v>
       </c>
       <c r="C724">
-        <v>364</v>
+        <v>145</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -15441,7 +15441,7 @@
         <v>1725</v>
       </c>
       <c r="C725">
-        <v>160</v>
+        <v>83</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -15452,7 +15452,7 @@
         <v>1726</v>
       </c>
       <c r="C726">
-        <v>510</v>
+        <v>105</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -15463,7 +15463,7 @@
         <v>1727</v>
       </c>
       <c r="C727">
-        <v>270</v>
+        <v>14</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -15474,7 +15474,7 @@
         <v>1728</v>
       </c>
       <c r="C728">
-        <v>406</v>
+        <v>110</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -15485,7 +15485,7 @@
         <v>1729</v>
       </c>
       <c r="C729">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -15496,7 +15496,7 @@
         <v>1730</v>
       </c>
       <c r="C730">
-        <v>1581</v>
+        <v>15</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -15507,7 +15507,7 @@
         <v>1731</v>
       </c>
       <c r="C731">
-        <v>1430</v>
+        <v>97</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -15518,7 +15518,7 @@
         <v>1732</v>
       </c>
       <c r="C732">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -15529,7 +15529,7 @@
         <v>1733</v>
       </c>
       <c r="C733">
-        <v>376</v>
+        <v>25</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -15540,7 +15540,7 @@
         <v>1734</v>
       </c>
       <c r="C734">
-        <v>308</v>
+        <v>92</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -15551,7 +15551,7 @@
         <v>1735</v>
       </c>
       <c r="C735">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -15562,7 +15562,7 @@
         <v>1736</v>
       </c>
       <c r="C736">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -15573,7 +15573,7 @@
         <v>1737</v>
       </c>
       <c r="C737">
-        <v>681</v>
+        <v>87</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -15584,7 +15584,7 @@
         <v>1738</v>
       </c>
       <c r="C738">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -15595,7 +15595,7 @@
         <v>1739</v>
       </c>
       <c r="C739">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -15606,7 +15606,7 @@
         <v>1740</v>
       </c>
       <c r="C740">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -15617,7 +15617,7 @@
         <v>1741</v>
       </c>
       <c r="C741">
-        <v>822</v>
+        <v>54</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -15628,7 +15628,7 @@
         <v>1742</v>
       </c>
       <c r="C742">
-        <v>956</v>
+        <v>994</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -15639,7 +15639,7 @@
         <v>1743</v>
       </c>
       <c r="C743">
-        <v>314</v>
+        <v>16</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -15650,7 +15650,7 @@
         <v>1744</v>
       </c>
       <c r="C744">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -15661,7 +15661,7 @@
         <v>1745</v>
       </c>
       <c r="C745">
-        <v>191</v>
+        <v>108</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -15672,7 +15672,7 @@
         <v>1746</v>
       </c>
       <c r="C746">
-        <v>846</v>
+        <v>40</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -15683,7 +15683,7 @@
         <v>1747</v>
       </c>
       <c r="C747">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -15694,7 +15694,7 @@
         <v>1748</v>
       </c>
       <c r="C748">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -15705,7 +15705,7 @@
         <v>1749</v>
       </c>
       <c r="C749">
-        <v>1857</v>
+        <v>40</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -15716,7 +15716,7 @@
         <v>1750</v>
       </c>
       <c r="C750">
-        <v>21</v>
+        <v>249</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -15727,7 +15727,7 @@
         <v>1751</v>
       </c>
       <c r="C751">
-        <v>319</v>
+        <v>190</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -15738,7 +15738,7 @@
         <v>1752</v>
       </c>
       <c r="C752">
-        <v>219</v>
+        <v>155</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -15749,7 +15749,7 @@
         <v>1753</v>
       </c>
       <c r="C753">
-        <v>1341</v>
+        <v>179</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -15760,7 +15760,7 @@
         <v>1754</v>
       </c>
       <c r="C754">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -15771,7 +15771,7 @@
         <v>1755</v>
       </c>
       <c r="C755">
-        <v>164</v>
+        <v>17</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -15782,7 +15782,7 @@
         <v>1756</v>
       </c>
       <c r="C756">
-        <v>816</v>
+        <v>8</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -15793,7 +15793,7 @@
         <v>1757</v>
       </c>
       <c r="C757">
-        <v>212</v>
+        <v>500</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -15804,7 +15804,7 @@
         <v>1758</v>
       </c>
       <c r="C758">
-        <v>333</v>
+        <v>221</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -15815,7 +15815,7 @@
         <v>1759</v>
       </c>
       <c r="C759">
-        <v>278</v>
+        <v>23</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -15826,7 +15826,7 @@
         <v>1760</v>
       </c>
       <c r="C760">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -15837,7 +15837,7 @@
         <v>1761</v>
       </c>
       <c r="C761">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -15848,7 +15848,7 @@
         <v>1762</v>
       </c>
       <c r="C762">
-        <v>487</v>
+        <v>659</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -15859,7 +15859,7 @@
         <v>1763</v>
       </c>
       <c r="C763">
-        <v>1752</v>
+        <v>38</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -15870,7 +15870,7 @@
         <v>1764</v>
       </c>
       <c r="C764">
-        <v>545</v>
+        <v>26</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -15881,7 +15881,7 @@
         <v>1765</v>
       </c>
       <c r="C765">
-        <v>323</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -15892,7 +15892,7 @@
         <v>1766</v>
       </c>
       <c r="C766">
-        <v>2875</v>
+        <v>88</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -15903,7 +15903,7 @@
         <v>1767</v>
       </c>
       <c r="C767">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -15914,7 +15914,7 @@
         <v>1768</v>
       </c>
       <c r="C768">
-        <v>1475</v>
+        <v>196</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -15925,7 +15925,7 @@
         <v>1769</v>
       </c>
       <c r="C769">
-        <v>1626</v>
+        <v>391</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -15936,7 +15936,7 @@
         <v>1770</v>
       </c>
       <c r="C770">
-        <v>1517</v>
+        <v>118</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -15947,7 +15947,7 @@
         <v>1771</v>
       </c>
       <c r="C771">
-        <v>1055</v>
+        <v>142</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -15958,7 +15958,7 @@
         <v>1772</v>
       </c>
       <c r="C772">
-        <v>869</v>
+        <v>144</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -15969,7 +15969,7 @@
         <v>1773</v>
       </c>
       <c r="C773">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -15980,7 +15980,7 @@
         <v>1774</v>
       </c>
       <c r="C774">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -15991,7 +15991,7 @@
         <v>1775</v>
       </c>
       <c r="C775">
-        <v>149</v>
+        <v>475</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -16002,7 +16002,7 @@
         <v>1776</v>
       </c>
       <c r="C776">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -16013,7 +16013,7 @@
         <v>1777</v>
       </c>
       <c r="C777">
-        <v>236</v>
+        <v>102</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -16024,7 +16024,7 @@
         <v>1778</v>
       </c>
       <c r="C778">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -16035,7 +16035,7 @@
         <v>1779</v>
       </c>
       <c r="C779">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -16046,7 +16046,7 @@
         <v>1780</v>
       </c>
       <c r="C780">
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -16057,7 +16057,7 @@
         <v>1781</v>
       </c>
       <c r="C781">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -16068,7 +16068,7 @@
         <v>1782</v>
       </c>
       <c r="C782">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -16079,7 +16079,7 @@
         <v>1783</v>
       </c>
       <c r="C783">
-        <v>827</v>
+        <v>27</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -16090,7 +16090,7 @@
         <v>1784</v>
       </c>
       <c r="C784">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -16101,7 +16101,7 @@
         <v>1785</v>
       </c>
       <c r="C785">
-        <v>406</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -16112,7 +16112,7 @@
         <v>1786</v>
       </c>
       <c r="C786">
-        <v>239</v>
+        <v>46</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -16123,7 +16123,7 @@
         <v>1787</v>
       </c>
       <c r="C787">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -16134,7 +16134,7 @@
         <v>1788</v>
       </c>
       <c r="C788">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -16145,7 +16145,7 @@
         <v>1789</v>
       </c>
       <c r="C789">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -16156,7 +16156,7 @@
         <v>1790</v>
       </c>
       <c r="C790">
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -16167,7 +16167,7 @@
         <v>1791</v>
       </c>
       <c r="C791">
-        <v>486</v>
+        <v>957</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -16178,7 +16178,7 @@
         <v>1792</v>
       </c>
       <c r="C792">
-        <v>376</v>
+        <v>44</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -16189,7 +16189,7 @@
         <v>1793</v>
       </c>
       <c r="C793">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -16200,7 +16200,7 @@
         <v>1794</v>
       </c>
       <c r="C794">
-        <v>183</v>
+        <v>30</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -16211,7 +16211,7 @@
         <v>1795</v>
       </c>
       <c r="C795">
-        <v>674</v>
+        <v>27</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -16233,7 +16233,7 @@
         <v>1797</v>
       </c>
       <c r="C797">
-        <v>117</v>
+        <v>300</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -16244,7 +16244,7 @@
         <v>1798</v>
       </c>
       <c r="C798">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -16255,7 +16255,7 @@
         <v>1799</v>
       </c>
       <c r="C799">
-        <v>377</v>
+        <v>88</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -16266,7 +16266,7 @@
         <v>1800</v>
       </c>
       <c r="C800">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -16277,7 +16277,7 @@
         <v>1801</v>
       </c>
       <c r="C801">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -16288,7 +16288,7 @@
         <v>1802</v>
       </c>
       <c r="C802">
-        <v>914</v>
+        <v>130</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -16299,7 +16299,7 @@
         <v>1803</v>
       </c>
       <c r="C803">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -16310,7 +16310,7 @@
         <v>1804</v>
       </c>
       <c r="C804">
-        <v>1348</v>
+        <v>119</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -16321,7 +16321,7 @@
         <v>1805</v>
       </c>
       <c r="C805">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -16332,7 +16332,7 @@
         <v>1806</v>
       </c>
       <c r="C806">
-        <v>196</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -16343,7 +16343,7 @@
         <v>1807</v>
       </c>
       <c r="C807">
-        <v>226</v>
+        <v>138</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -16354,7 +16354,7 @@
         <v>1808</v>
       </c>
       <c r="C808">
-        <v>1068</v>
+        <v>908</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -16365,7 +16365,7 @@
         <v>1809</v>
       </c>
       <c r="C809">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -16376,7 +16376,7 @@
         <v>1810</v>
       </c>
       <c r="C810">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -16387,7 +16387,7 @@
         <v>1811</v>
       </c>
       <c r="C811">
-        <v>259</v>
+        <v>118</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -16398,7 +16398,7 @@
         <v>1812</v>
       </c>
       <c r="C812">
-        <v>198</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -16409,7 +16409,7 @@
         <v>1813</v>
       </c>
       <c r="C813">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -16420,7 +16420,7 @@
         <v>1814</v>
       </c>
       <c r="C814">
-        <v>33</v>
+        <v>277</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -16431,7 +16431,7 @@
         <v>1815</v>
       </c>
       <c r="C815">
-        <v>722</v>
+        <v>198</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -16442,7 +16442,7 @@
         <v>1816</v>
       </c>
       <c r="C816">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -16453,7 +16453,7 @@
         <v>1817</v>
       </c>
       <c r="C817">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -16464,7 +16464,7 @@
         <v>1818</v>
       </c>
       <c r="C818">
-        <v>3502</v>
+        <v>66</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -16475,7 +16475,7 @@
         <v>1819</v>
       </c>
       <c r="C819">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -16486,7 +16486,7 @@
         <v>1820</v>
       </c>
       <c r="C820">
-        <v>4509</v>
+        <v>86</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -16497,7 +16497,7 @@
         <v>1821</v>
       </c>
       <c r="C821">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -16508,7 +16508,7 @@
         <v>1822</v>
       </c>
       <c r="C822">
-        <v>769</v>
+        <v>240</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -16519,7 +16519,7 @@
         <v>1823</v>
       </c>
       <c r="C823">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -16530,7 +16530,7 @@
         <v>1824</v>
       </c>
       <c r="C824">
-        <v>464</v>
+        <v>53</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -16541,7 +16541,7 @@
         <v>1825</v>
       </c>
       <c r="C825">
-        <v>755</v>
+        <v>408</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -16552,7 +16552,7 @@
         <v>1826</v>
       </c>
       <c r="C826">
-        <v>743</v>
+        <v>36</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -16563,7 +16563,7 @@
         <v>1827</v>
       </c>
       <c r="C827">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -16574,7 +16574,7 @@
         <v>1828</v>
       </c>
       <c r="C828">
-        <v>873</v>
+        <v>78</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -16585,7 +16585,7 @@
         <v>1829</v>
       </c>
       <c r="C829">
-        <v>286</v>
+        <v>52</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -16596,7 +16596,7 @@
         <v>1830</v>
       </c>
       <c r="C830">
-        <v>542</v>
+        <v>152</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -16607,7 +16607,7 @@
         <v>1831</v>
       </c>
       <c r="C831">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -16618,7 +16618,7 @@
         <v>1832</v>
       </c>
       <c r="C832">
-        <v>343</v>
+        <v>27</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -16629,7 +16629,7 @@
         <v>1833</v>
       </c>
       <c r="C833">
-        <v>2827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -16640,7 +16640,7 @@
         <v>1834</v>
       </c>
       <c r="C834">
-        <v>3300</v>
+        <v>8</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -16651,7 +16651,7 @@
         <v>1835</v>
       </c>
       <c r="C835">
-        <v>1074</v>
+        <v>69</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -16662,7 +16662,7 @@
         <v>1836</v>
       </c>
       <c r="C836">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -16673,7 +16673,7 @@
         <v>1837</v>
       </c>
       <c r="C837">
-        <v>515</v>
+        <v>7</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -16684,7 +16684,7 @@
         <v>1838</v>
       </c>
       <c r="C838">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -16695,7 +16695,7 @@
         <v>1839</v>
       </c>
       <c r="C839">
-        <v>433</v>
+        <v>17</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -16706,7 +16706,7 @@
         <v>1840</v>
       </c>
       <c r="C840">
-        <v>155</v>
+        <v>32</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -16717,7 +16717,7 @@
         <v>1841</v>
       </c>
       <c r="C841">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -16728,7 +16728,7 @@
         <v>1842</v>
       </c>
       <c r="C842">
-        <v>1477</v>
+        <v>16</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -16739,7 +16739,7 @@
         <v>1843</v>
       </c>
       <c r="C843">
-        <v>1206</v>
+        <v>62</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -16750,7 +16750,7 @@
         <v>1844</v>
       </c>
       <c r="C844">
-        <v>1008</v>
+        <v>15</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -16761,7 +16761,7 @@
         <v>1845</v>
       </c>
       <c r="C845">
-        <v>151</v>
+        <v>261</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -16772,7 +16772,7 @@
         <v>1846</v>
       </c>
       <c r="C846">
-        <v>767</v>
+        <v>112</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -16783,7 +16783,7 @@
         <v>1847</v>
       </c>
       <c r="C847">
-        <v>262</v>
+        <v>24</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -16794,7 +16794,7 @@
         <v>1848</v>
       </c>
       <c r="C848">
-        <v>483</v>
+        <v>290</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -16805,7 +16805,7 @@
         <v>1849</v>
       </c>
       <c r="C849">
-        <v>865</v>
+        <v>91</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -16816,7 +16816,7 @@
         <v>1850</v>
       </c>
       <c r="C850">
-        <v>336</v>
+        <v>30</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -16827,7 +16827,7 @@
         <v>1851</v>
       </c>
       <c r="C851">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -16838,7 +16838,7 @@
         <v>1852</v>
       </c>
       <c r="C852">
-        <v>593</v>
+        <v>242</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -16849,7 +16849,7 @@
         <v>1853</v>
       </c>
       <c r="C853">
-        <v>501</v>
+        <v>52</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -16860,7 +16860,7 @@
         <v>1854</v>
       </c>
       <c r="C854">
-        <v>828</v>
+        <v>51</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -16871,7 +16871,7 @@
         <v>1855</v>
       </c>
       <c r="C855">
-        <v>172</v>
+        <v>264</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -16882,7 +16882,7 @@
         <v>1856</v>
       </c>
       <c r="C856">
-        <v>282</v>
+        <v>39</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -16893,7 +16893,7 @@
         <v>1857</v>
       </c>
       <c r="C857">
-        <v>2150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -16904,7 +16904,7 @@
         <v>1858</v>
       </c>
       <c r="C858">
-        <v>758</v>
+        <v>177</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -16915,7 +16915,7 @@
         <v>1859</v>
       </c>
       <c r="C859">
-        <v>415</v>
+        <v>45</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -16926,7 +16926,7 @@
         <v>1860</v>
       </c>
       <c r="C860">
-        <v>2264</v>
+        <v>21</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -16937,7 +16937,7 @@
         <v>1861</v>
       </c>
       <c r="C861">
-        <v>773</v>
+        <v>61</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -16948,7 +16948,7 @@
         <v>1862</v>
       </c>
       <c r="C862">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -16959,7 +16959,7 @@
         <v>1863</v>
       </c>
       <c r="C863">
-        <v>407</v>
+        <v>21</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -16970,7 +16970,7 @@
         <v>1864</v>
       </c>
       <c r="C864">
-        <v>267</v>
+        <v>14</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -16981,7 +16981,7 @@
         <v>1865</v>
       </c>
       <c r="C865">
-        <v>169</v>
+        <v>33</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -16992,7 +16992,7 @@
         <v>1866</v>
       </c>
       <c r="C866">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -17003,7 +17003,7 @@
         <v>1867</v>
       </c>
       <c r="C867">
-        <v>630</v>
+        <v>978</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -17014,7 +17014,7 @@
         <v>1868</v>
       </c>
       <c r="C868">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -17025,7 +17025,7 @@
         <v>1869</v>
       </c>
       <c r="C869">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -17036,7 +17036,7 @@
         <v>1870</v>
       </c>
       <c r="C870">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -17047,7 +17047,7 @@
         <v>1871</v>
       </c>
       <c r="C871">
-        <v>936</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -17058,7 +17058,7 @@
         <v>1872</v>
       </c>
       <c r="C872">
-        <v>175</v>
+        <v>27</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -17069,7 +17069,7 @@
         <v>1873</v>
       </c>
       <c r="C873">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -17080,7 +17080,7 @@
         <v>1874</v>
       </c>
       <c r="C874">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -17091,7 +17091,7 @@
         <v>1875</v>
       </c>
       <c r="C875">
-        <v>668</v>
+        <v>249</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -17102,7 +17102,7 @@
         <v>1876</v>
       </c>
       <c r="C876">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -17113,7 +17113,7 @@
         <v>1877</v>
       </c>
       <c r="C877">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -17124,7 +17124,7 @@
         <v>1878</v>
       </c>
       <c r="C878">
-        <v>95</v>
+        <v>306</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -17135,7 +17135,7 @@
         <v>1879</v>
       </c>
       <c r="C879">
-        <v>248</v>
+        <v>288</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -17146,7 +17146,7 @@
         <v>1880</v>
       </c>
       <c r="C880">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -17157,7 +17157,7 @@
         <v>1881</v>
       </c>
       <c r="C881">
-        <v>1177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -17168,7 +17168,7 @@
         <v>1882</v>
       </c>
       <c r="C882">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -17179,7 +17179,7 @@
         <v>1883</v>
       </c>
       <c r="C883">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -17190,7 +17190,7 @@
         <v>1884</v>
       </c>
       <c r="C884">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -17201,7 +17201,7 @@
         <v>1885</v>
       </c>
       <c r="C885">
-        <v>42</v>
+        <v>253</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -17212,7 +17212,7 @@
         <v>1886</v>
       </c>
       <c r="C886">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -17223,7 +17223,7 @@
         <v>1887</v>
       </c>
       <c r="C887">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -17234,7 +17234,7 @@
         <v>1888</v>
       </c>
       <c r="C888">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -17245,7 +17245,7 @@
         <v>1889</v>
       </c>
       <c r="C889">
-        <v>2238</v>
+        <v>49</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -17256,7 +17256,7 @@
         <v>1890</v>
       </c>
       <c r="C890">
-        <v>927</v>
+        <v>16</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -17267,7 +17267,7 @@
         <v>1891</v>
       </c>
       <c r="C891">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -17278,7 +17278,7 @@
         <v>1892</v>
       </c>
       <c r="C892">
-        <v>134</v>
+        <v>35</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -17289,7 +17289,7 @@
         <v>1893</v>
       </c>
       <c r="C893">
-        <v>891</v>
+        <v>401</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -17300,7 +17300,7 @@
         <v>1894</v>
       </c>
       <c r="C894">
-        <v>2840</v>
+        <v>15</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -17311,7 +17311,7 @@
         <v>1895</v>
       </c>
       <c r="C895">
-        <v>3851</v>
+        <v>43</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -17322,7 +17322,7 @@
         <v>1896</v>
       </c>
       <c r="C896">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -17333,7 +17333,7 @@
         <v>1897</v>
       </c>
       <c r="C897">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -17344,7 +17344,7 @@
         <v>1898</v>
       </c>
       <c r="C898">
-        <v>1052</v>
+        <v>280</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -17355,7 +17355,7 @@
         <v>1899</v>
       </c>
       <c r="C899">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -17366,7 +17366,7 @@
         <v>1900</v>
       </c>
       <c r="C900">
-        <v>350</v>
+        <v>225</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -17377,7 +17377,7 @@
         <v>1901</v>
       </c>
       <c r="C901">
-        <v>347</v>
+        <v>134</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -17388,7 +17388,7 @@
         <v>1902</v>
       </c>
       <c r="C902">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -17399,7 +17399,7 @@
         <v>1903</v>
       </c>
       <c r="C903">
-        <v>682</v>
+        <v>160</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -17410,7 +17410,7 @@
         <v>1904</v>
       </c>
       <c r="C904">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -17421,7 +17421,7 @@
         <v>1905</v>
       </c>
       <c r="C905">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -17432,7 +17432,7 @@
         <v>1906</v>
       </c>
       <c r="C906">
-        <v>814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -17443,7 +17443,7 @@
         <v>1907</v>
       </c>
       <c r="C907">
-        <v>1082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -17454,7 +17454,7 @@
         <v>1908</v>
       </c>
       <c r="C908">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -17465,7 +17465,7 @@
         <v>1909</v>
       </c>
       <c r="C909">
-        <v>616</v>
+        <v>6</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -17476,7 +17476,7 @@
         <v>1910</v>
       </c>
       <c r="C910">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -17487,7 +17487,7 @@
         <v>1911</v>
       </c>
       <c r="C911">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -17498,7 +17498,7 @@
         <v>1912</v>
       </c>
       <c r="C912">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -17509,7 +17509,7 @@
         <v>1913</v>
       </c>
       <c r="C913">
-        <v>106</v>
+        <v>31</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -17520,7 +17520,7 @@
         <v>1914</v>
       </c>
       <c r="C914">
-        <v>323</v>
+        <v>13</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -17531,7 +17531,7 @@
         <v>1915</v>
       </c>
       <c r="C915">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -17542,7 +17542,7 @@
         <v>1916</v>
       </c>
       <c r="C916">
-        <v>151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -17553,7 +17553,7 @@
         <v>1917</v>
       </c>
       <c r="C917">
-        <v>294</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -17564,7 +17564,7 @@
         <v>1918</v>
       </c>
       <c r="C918">
-        <v>1627</v>
+        <v>15</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -17575,7 +17575,7 @@
         <v>1919</v>
       </c>
       <c r="C919">
-        <v>85</v>
+        <v>226</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -17586,7 +17586,7 @@
         <v>1920</v>
       </c>
       <c r="C920">
-        <v>78</v>
+        <v>540</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -17597,7 +17597,7 @@
         <v>1921</v>
       </c>
       <c r="C921">
-        <v>116</v>
+        <v>169</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -17608,7 +17608,7 @@
         <v>1922</v>
       </c>
       <c r="C922">
-        <v>1723</v>
+        <v>147</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -17619,7 +17619,7 @@
         <v>1923</v>
       </c>
       <c r="C923">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -17630,7 +17630,7 @@
         <v>1924</v>
       </c>
       <c r="C924">
-        <v>537</v>
+        <v>15</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -17641,7 +17641,7 @@
         <v>1925</v>
       </c>
       <c r="C925">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -17652,7 +17652,7 @@
         <v>1926</v>
       </c>
       <c r="C926">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -17663,7 +17663,7 @@
         <v>1927</v>
       </c>
       <c r="C927">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -17674,7 +17674,7 @@
         <v>1928</v>
       </c>
       <c r="C928">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -17685,7 +17685,7 @@
         <v>1929</v>
       </c>
       <c r="C929">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -17696,7 +17696,7 @@
         <v>1930</v>
       </c>
       <c r="C930">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -17707,7 +17707,7 @@
         <v>1931</v>
       </c>
       <c r="C931">
-        <v>3099</v>
+        <v>21</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -17718,7 +17718,7 @@
         <v>1932</v>
       </c>
       <c r="C932">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -17729,7 +17729,7 @@
         <v>1933</v>
       </c>
       <c r="C933">
-        <v>974</v>
+        <v>119</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -17740,7 +17740,7 @@
         <v>1934</v>
       </c>
       <c r="C934">
-        <v>220</v>
+        <v>52</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -17751,7 +17751,7 @@
         <v>1935</v>
       </c>
       <c r="C935">
-        <v>2933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -17762,7 +17762,7 @@
         <v>1936</v>
       </c>
       <c r="C936">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -17773,7 +17773,7 @@
         <v>1937</v>
       </c>
       <c r="C937">
-        <v>2322</v>
+        <v>101</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -17784,7 +17784,7 @@
         <v>1938</v>
       </c>
       <c r="C938">
-        <v>369</v>
+        <v>43</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -17795,7 +17795,7 @@
         <v>1939</v>
       </c>
       <c r="C939">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -17806,7 +17806,7 @@
         <v>1940</v>
       </c>
       <c r="C940">
-        <v>300</v>
+        <v>39</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -17817,7 +17817,7 @@
         <v>1941</v>
       </c>
       <c r="C941">
-        <v>348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -17828,7 +17828,7 @@
         <v>1942</v>
       </c>
       <c r="C942">
-        <v>2020</v>
+        <v>109</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -17839,7 +17839,7 @@
         <v>1943</v>
       </c>
       <c r="C943">
-        <v>4116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -17850,7 +17850,7 @@
         <v>1944</v>
       </c>
       <c r="C944">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -17861,7 +17861,7 @@
         <v>1945</v>
       </c>
       <c r="C945">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -17872,7 +17872,7 @@
         <v>1946</v>
       </c>
       <c r="C946">
-        <v>157</v>
+        <v>24</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -17883,7 +17883,7 @@
         <v>1947</v>
       </c>
       <c r="C947">
-        <v>442</v>
+        <v>119</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -17894,7 +17894,7 @@
         <v>1948</v>
       </c>
       <c r="C948">
-        <v>427</v>
+        <v>34</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -17905,7 +17905,7 @@
         <v>1949</v>
       </c>
       <c r="C949">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -17916,7 +17916,7 @@
         <v>1950</v>
       </c>
       <c r="C950">
-        <v>72</v>
+        <v>244</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -17927,7 +17927,7 @@
         <v>1951</v>
       </c>
       <c r="C951">
-        <v>194</v>
+        <v>398</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -17938,7 +17938,7 @@
         <v>1952</v>
       </c>
       <c r="C952">
-        <v>115</v>
+        <v>46</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -17949,7 +17949,7 @@
         <v>1953</v>
       </c>
       <c r="C953">
-        <v>163</v>
+        <v>198</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -17960,7 +17960,7 @@
         <v>1954</v>
       </c>
       <c r="C954">
-        <v>2046</v>
+        <v>80</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -17971,7 +17971,7 @@
         <v>1955</v>
       </c>
       <c r="C955">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -17982,7 +17982,7 @@
         <v>1956</v>
       </c>
       <c r="C956">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -17993,7 +17993,7 @@
         <v>1957</v>
       </c>
       <c r="C957">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -18004,7 +18004,7 @@
         <v>1958</v>
       </c>
       <c r="C958">
-        <v>394</v>
+        <v>108</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -18015,7 +18015,7 @@
         <v>1959</v>
       </c>
       <c r="C959">
-        <v>249</v>
+        <v>65</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -18026,7 +18026,7 @@
         <v>1960</v>
       </c>
       <c r="C960">
-        <v>567</v>
+        <v>13</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -18037,7 +18037,7 @@
         <v>1961</v>
       </c>
       <c r="C961">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -18048,7 +18048,7 @@
         <v>1962</v>
       </c>
       <c r="C962">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -18059,7 +18059,7 @@
         <v>1963</v>
       </c>
       <c r="C963">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -18070,7 +18070,7 @@
         <v>1964</v>
       </c>
       <c r="C964">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -18081,7 +18081,7 @@
         <v>1965</v>
       </c>
       <c r="C965">
-        <v>328</v>
+        <v>92</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -18092,7 +18092,7 @@
         <v>1966</v>
       </c>
       <c r="C966">
-        <v>1798</v>
+        <v>44</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -18103,7 +18103,7 @@
         <v>1967</v>
       </c>
       <c r="C967">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -18114,7 +18114,7 @@
         <v>1968</v>
       </c>
       <c r="C968">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -18125,7 +18125,7 @@
         <v>1969</v>
       </c>
       <c r="C969">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -18136,7 +18136,7 @@
         <v>1970</v>
       </c>
       <c r="C970">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -18147,7 +18147,7 @@
         <v>1971</v>
       </c>
       <c r="C971">
-        <v>1547</v>
+        <v>176</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -18158,7 +18158,7 @@
         <v>1972</v>
       </c>
       <c r="C972">
-        <v>137</v>
+        <v>278</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -18169,7 +18169,7 @@
         <v>1973</v>
       </c>
       <c r="C973">
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -18180,7 +18180,7 @@
         <v>1974</v>
       </c>
       <c r="C974">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -18191,7 +18191,7 @@
         <v>1975</v>
       </c>
       <c r="C975">
-        <v>136</v>
+        <v>45</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -18202,7 +18202,7 @@
         <v>1976</v>
       </c>
       <c r="C976">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -18213,7 +18213,7 @@
         <v>1977</v>
       </c>
       <c r="C977">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -18224,7 +18224,7 @@
         <v>1978</v>
       </c>
       <c r="C978">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -18235,7 +18235,7 @@
         <v>1979</v>
       </c>
       <c r="C979">
-        <v>542</v>
+        <v>39</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -18246,7 +18246,7 @@
         <v>1980</v>
       </c>
       <c r="C980">
-        <v>743</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -18257,7 +18257,7 @@
         <v>1981</v>
       </c>
       <c r="C981">
-        <v>139</v>
+        <v>33</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -18268,7 +18268,7 @@
         <v>1982</v>
       </c>
       <c r="C982">
-        <v>725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -18279,7 +18279,7 @@
         <v>1983</v>
       </c>
       <c r="C983">
-        <v>900</v>
+        <v>201</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -18290,7 +18290,7 @@
         <v>1984</v>
       </c>
       <c r="C984">
-        <v>379</v>
+        <v>47</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -18301,7 +18301,7 @@
         <v>1985</v>
       </c>
       <c r="C985">
-        <v>261</v>
+        <v>85</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -18312,7 +18312,7 @@
         <v>1986</v>
       </c>
       <c r="C986">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -18323,7 +18323,7 @@
         <v>1987</v>
       </c>
       <c r="C987">
-        <v>28</v>
+        <v>363</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -18334,7 +18334,7 @@
         <v>1988</v>
       </c>
       <c r="C988">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -18345,7 +18345,7 @@
         <v>1989</v>
       </c>
       <c r="C989">
-        <v>145</v>
+        <v>31</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -18356,7 +18356,7 @@
         <v>1990</v>
       </c>
       <c r="C990">
-        <v>320</v>
+        <v>88</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -18367,7 +18367,7 @@
         <v>1991</v>
       </c>
       <c r="C991">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -18378,7 +18378,7 @@
         <v>1992</v>
       </c>
       <c r="C992">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -18389,7 +18389,7 @@
         <v>1993</v>
       </c>
       <c r="C993">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -18400,7 +18400,7 @@
         <v>1994</v>
       </c>
       <c r="C994">
-        <v>82</v>
+        <v>319</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -18411,7 +18411,7 @@
         <v>1995</v>
       </c>
       <c r="C995">
-        <v>641</v>
+        <v>11</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -18422,7 +18422,7 @@
         <v>1996</v>
       </c>
       <c r="C996">
-        <v>829</v>
+        <v>980</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -18433,7 +18433,7 @@
         <v>1997</v>
       </c>
       <c r="C997">
-        <v>949</v>
+        <v>143</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -18444,7 +18444,7 @@
         <v>1998</v>
       </c>
       <c r="C998">
-        <v>2173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -18455,7 +18455,7 @@
         <v>1999</v>
       </c>
       <c r="C999">
-        <v>52</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -18466,7 +18466,7 @@
         <v>2000</v>
       </c>
       <c r="C1000">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
